--- a/tablas/tablas_C01.xlsx
+++ b/tablas/tablas_C01.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp master\OneDrive\Escritorio\Scidata_cursos\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp master\OneDrive\Escritorio\Practicas Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>HOTEL GARAY - INSUMOS COCINA</t>
   </si>
@@ -212,6 +215,27 @@
   </si>
   <si>
     <t>Decorativos</t>
+  </si>
+  <si>
+    <t>Rel/Rel</t>
+  </si>
+  <si>
+    <t>Abs/Abs</t>
+  </si>
+  <si>
+    <t>Abs/Rel</t>
+  </si>
+  <si>
+    <t>Rel/Abs</t>
+  </si>
+  <si>
+    <t>NÚMEROS</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>REDONDEO</t>
   </si>
 </sst>
 </file>
@@ -521,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +594,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1128,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,4 +1524,662 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="3:10" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14">
+        <v>18</v>
+      </c>
+      <c r="F7" s="14">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15">
+        <v>85</v>
+      </c>
+      <c r="I7" s="15">
+        <v>89</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="16">
+        <v>26</v>
+      </c>
+      <c r="E8" s="17">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17">
+        <v>19</v>
+      </c>
+      <c r="G8" s="17">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18">
+        <v>17</v>
+      </c>
+      <c r="I8" s="18">
+        <v>56</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16">
+        <v>25</v>
+      </c>
+      <c r="E9" s="17">
+        <v>31</v>
+      </c>
+      <c r="F9" s="27">
+        <v>22</v>
+      </c>
+      <c r="G9" s="27">
+        <v>20</v>
+      </c>
+      <c r="H9" s="28">
+        <v>21</v>
+      </c>
+      <c r="I9" s="18">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17">
+        <v>31</v>
+      </c>
+      <c r="F10" s="17">
+        <v>22</v>
+      </c>
+      <c r="G10" s="17">
+        <v>20</v>
+      </c>
+      <c r="H10" s="18">
+        <v>21</v>
+      </c>
+      <c r="I10" s="18">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="16">
+        <v>7</v>
+      </c>
+      <c r="E11" s="17">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17">
+        <v>11</v>
+      </c>
+      <c r="G11" s="17">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18">
+        <v>5</v>
+      </c>
+      <c r="I11" s="18">
+        <v>67</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17">
+        <v>11</v>
+      </c>
+      <c r="F12" s="17">
+        <v>23</v>
+      </c>
+      <c r="G12" s="17">
+        <v>23</v>
+      </c>
+      <c r="H12" s="18">
+        <v>20</v>
+      </c>
+      <c r="I12" s="18">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="16">
+        <v>22</v>
+      </c>
+      <c r="E13" s="17">
+        <v>11</v>
+      </c>
+      <c r="F13" s="17">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17">
+        <v>11</v>
+      </c>
+      <c r="H13" s="18">
+        <v>9</v>
+      </c>
+      <c r="I13" s="18">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16">
+        <v>8</v>
+      </c>
+      <c r="E14" s="17">
+        <v>10</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6</v>
+      </c>
+      <c r="G14" s="17">
+        <v>7</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8</v>
+      </c>
+      <c r="I14" s="18">
+        <v>9</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20">
+        <v>3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
+      <c r="H15" s="21">
+        <v>5</v>
+      </c>
+      <c r="I15" s="21">
+        <v>6</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="34"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="34"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3">
+        <v>9</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3">
+        <v>30</v>
+      </c>
+      <c r="G39" s="3">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45</v>
+      </c>
+      <c r="J39" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="6" width="11.5546875" style="35"/>
+    <col min="7" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="35">
+        <v>11</v>
+      </c>
+      <c r="D5" s="35">
+        <f>AVERAGE(B5:B7)</f>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="F5" s="35">
+        <f>ROUND(D5:D5,0)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="35">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tablas/tablas_C01.xlsx
+++ b/tablas/tablas_C01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -886,9 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1807,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/tablas/tablas_C01.xlsx
+++ b/tablas/tablas_C01.xlsx
@@ -18,6 +18,12 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja10" sheetId="10" r:id="rId10"/>
+    <sheet name="Hoja11" sheetId="11" r:id="rId11"/>
+    <sheet name="Hoja12" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="220">
   <si>
     <t>HOTEL GARAY - INSUMOS COCINA</t>
   </si>
@@ -236,13 +242,722 @@
   </si>
   <si>
     <t>REDONDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HOTEL GARAY - MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Área asignada</t>
+  </si>
+  <si>
+    <t>Horarios</t>
+  </si>
+  <si>
+    <t>Asegurado</t>
+  </si>
+  <si>
+    <t>Días</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Asensor</t>
+  </si>
+  <si>
+    <t>8 a 16</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Lunes a viernes</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Habitaciones</t>
+  </si>
+  <si>
+    <t>5 a 13</t>
+  </si>
+  <si>
+    <t>Martes a Sábado</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Jueves a Lunes</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Comedor</t>
+  </si>
+  <si>
+    <t>10 a 14</t>
+  </si>
+  <si>
+    <t>Viernes a Martes</t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Oficinas</t>
+  </si>
+  <si>
+    <t>18 a 00</t>
+  </si>
+  <si>
+    <t>Artículos de mantelería lavados</t>
+  </si>
+  <si>
+    <t>Manteles cuadrados</t>
+  </si>
+  <si>
+    <t>Toallas chicas</t>
+  </si>
+  <si>
+    <t>Sábanas 2 y 1/2 plaza</t>
+  </si>
+  <si>
+    <t>Toalls chicas</t>
+  </si>
+  <si>
+    <t>Manteles redondos</t>
+  </si>
+  <si>
+    <t>Sábanas 1 plaza</t>
+  </si>
+  <si>
+    <t>Toallas Grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delantales </t>
+  </si>
+  <si>
+    <t>Repasadores</t>
+  </si>
+  <si>
+    <t>HOTEL GARAY</t>
+  </si>
+  <si>
+    <t>Tienda de Recuerdos</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Stock inicial</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Stock Final</t>
+  </si>
+  <si>
+    <t>Llaveros</t>
+  </si>
+  <si>
+    <t>Postales</t>
+  </si>
+  <si>
+    <t>Imanes</t>
+  </si>
+  <si>
+    <t>Banderas</t>
+  </si>
+  <si>
+    <t>Placas</t>
+  </si>
+  <si>
+    <t>Cuadros</t>
+  </si>
+  <si>
+    <t>Prendedores</t>
+  </si>
+  <si>
+    <t>Gorras</t>
+  </si>
+  <si>
+    <t>Remeras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INEGI. Encuesta Nacional de Victimización y Percepción sobre Seguridad Pública 2020 (ENVIPE). Tabulados básicos. </t>
+  </si>
+  <si>
+    <t>Monto total y promedio de erogaciones a consecuencia de la inseguridad</t>
+  </si>
+  <si>
+    <t>Cuadro 4.22</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por entidad federativa, según tipo de erogación </t>
+  </si>
+  <si>
+    <t>Entidad federativa</t>
+  </si>
+  <si>
+    <t>Población de 18 años y más</t>
+  </si>
+  <si>
+    <t>Personas en hogares con alguna medida
+de protección</t>
+  </si>
+  <si>
+    <t>Gasto en medidas de protección 
+contra la delincuencia</t>
+  </si>
+  <si>
+    <r>
+      <t>Víctimas del
+delito</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1,2</t>
+    </r>
+  </si>
+  <si>
+    <t>Pérdidas a consecuencia
+del delito</t>
+  </si>
+  <si>
+    <t>Gastos a consecuencia de daños en la salud</t>
+  </si>
+  <si>
+    <r>
+      <t>Personas con afectaciones a consecuencia de la inseguridad</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Costos del
+delito</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Promedio de costos del
+delito</t>
+  </si>
+  <si>
+    <t>Gasto en pesos</t>
+  </si>
+  <si>
+    <t>Promedio de gastos por persona</t>
+  </si>
+  <si>
+    <r>
+      <t>Pérdidas en
+pesos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Promedio de
+pérdidas</t>
+  </si>
+  <si>
+    <r>
+      <t>Gastos en
+pesos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Estados Unidos Mexicanos</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>Baja California Sur</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t>Colima</t>
+  </si>
+  <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Durango</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Estado de México</t>
+  </si>
+  <si>
+    <t>Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>Nayarit</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>Oaxaca</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t>Sonora</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Tamaulipas</t>
+  </si>
+  <si>
+    <t>Tlaxcala</t>
+  </si>
+  <si>
+    <t>Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t>Yucatán</t>
+  </si>
+  <si>
+    <t>Zacatecas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota 1: Las estimaciones que aparecen en este cuadro están coloreadas de acuerdo con su nivel de precisión, en </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alto, Moderado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bajo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tomando como referencia el coeficiente de variación CV (%). Una precisión </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Baja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> requiere un uso cauteloso de la estimación en el que se analicen las causas de la alta variabilidad</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            y se consideren otros indicadores de precisión y confiabilidad, como el intervalo de confianza.</t>
+  </si>
+  <si>
+    <t>Nivel de precisión de las estimaciones:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          Alto,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CV en el rango de (0,15)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          Moderado, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CV en el rango de [15,30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">          Bajo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CV de 30% en adelante</t>
+    </r>
+  </si>
+  <si>
+    <t>Nota 2: Debido a la emergencia sanitaria generada por el virus SARS-CoV2 (COVID-19), el levantamiento de la información se realizó del 17 al 31 de marzo y del 27 de julio al 04 de septiembre.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Las cifras correspondientes a los Estados Unidos Mexicanos incluyen aquellos casos en los cuales el informante no supo o no respondió en qué entidad federativa sucedió el delito que generó la afectación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Se refiere a las víctimas del delito tanto en su entidad federativa de residencia como en el resto de las entidades. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Las personas con alguna afectación a consecuencia de la inseguridad están conformadas por la población de 18 años y más en cuyo hogar se gastó en alguna medida de protección y/o fueron víctimas del delito en una o más entidades federativas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fuente: INEGI. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Encuesta Nacional de Victimización y Percepción sobre Seguridad Pública,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>INEGI. Encuesta Nacional de Victimización y Percepción sobre Seguridad Pública 2020. SNIEG. Información de Interés Nacional.</t>
+  </si>
+  <si>
+    <t>Números</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Fechas</t>
+  </si>
+  <si>
+    <t>Valores Repetidos</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Melany</t>
+  </si>
+  <si>
+    <t>Elefante</t>
+  </si>
+  <si>
+    <t>Roque</t>
+  </si>
+  <si>
+    <t>Ratón</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Cebra</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Pantera</t>
+  </si>
+  <si>
+    <t>Serpiente</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Jirafa</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Gorila</t>
+  </si>
+  <si>
+    <t>Blas</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="###\ ###\ ###\ ###\ ###\ ###\ ##0"/>
+    <numFmt numFmtId="169" formatCode="###\ ###\ ##0"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,16 +987,215 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="INEGI Institucional"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5400"/>
+        <bgColor rgb="FFADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEA00"/>
+        <bgColor rgb="FFADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -541,11 +1455,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -594,22 +1622,384 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStyleMedium21 2" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -884,13 +2274,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>7</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34">
+        <v>5</v>
+      </c>
+      <c r="D4" s="34">
+        <v>8</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34">
+        <v>6</v>
+      </c>
+      <c r="D5" s="34">
+        <v>9</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>4</v>
+      </c>
+      <c r="D6" s="34">
+        <v>7</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>5</v>
+      </c>
+      <c r="D7" s="34">
+        <v>8</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="34">
+        <v>3</v>
+      </c>
+      <c r="C8" s="34">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34">
+        <v>9</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34">
+        <v>7</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="34">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34">
+        <v>5</v>
+      </c>
+      <c r="D10" s="34">
+        <v>8</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="34">
+        <v>3</v>
+      </c>
+      <c r="C11" s="34">
+        <v>6</v>
+      </c>
+      <c r="D11" s="34">
+        <v>9</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="34">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="34">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>6</v>
+      </c>
+      <c r="D14" s="34">
+        <v>9</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:11" ht="23.4">
+      <c r="B3" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+    </row>
+    <row r="4" spans="2:11" ht="18">
+      <c r="B4" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="71">
+        <v>35</v>
+      </c>
+      <c r="D8" s="71">
+        <v>4</v>
+      </c>
+      <c r="E8" s="71">
+        <v>4</v>
+      </c>
+      <c r="F8" s="71">
+        <v>5</v>
+      </c>
+      <c r="G8" s="71">
+        <v>4</v>
+      </c>
+      <c r="H8" s="71">
+        <v>4</v>
+      </c>
+      <c r="I8" s="71">
+        <v>9</v>
+      </c>
+      <c r="J8" s="71">
+        <v>1</v>
+      </c>
+      <c r="K8" s="73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="71">
+        <v>54</v>
+      </c>
+      <c r="D9" s="71">
+        <v>5</v>
+      </c>
+      <c r="E9" s="71">
+        <v>7</v>
+      </c>
+      <c r="F9" s="71">
+        <v>11</v>
+      </c>
+      <c r="G9" s="71">
+        <v>7</v>
+      </c>
+      <c r="H9" s="71">
+        <v>7</v>
+      </c>
+      <c r="I9" s="71">
+        <v>7</v>
+      </c>
+      <c r="J9" s="71">
+        <v>7</v>
+      </c>
+      <c r="K9" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="71">
+        <v>46</v>
+      </c>
+      <c r="D10" s="71">
+        <v>2</v>
+      </c>
+      <c r="E10" s="71">
+        <v>8</v>
+      </c>
+      <c r="F10" s="71">
+        <v>4</v>
+      </c>
+      <c r="G10" s="71">
+        <v>8</v>
+      </c>
+      <c r="H10" s="71">
+        <v>8</v>
+      </c>
+      <c r="I10" s="71">
+        <v>6</v>
+      </c>
+      <c r="J10" s="71">
+        <v>9</v>
+      </c>
+      <c r="K10" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="71">
+        <v>41</v>
+      </c>
+      <c r="D11" s="71">
+        <v>9</v>
+      </c>
+      <c r="E11" s="71">
+        <v>5</v>
+      </c>
+      <c r="F11" s="71">
+        <v>2</v>
+      </c>
+      <c r="G11" s="71">
+        <v>8</v>
+      </c>
+      <c r="H11" s="71">
+        <v>5</v>
+      </c>
+      <c r="I11" s="71">
+        <v>4</v>
+      </c>
+      <c r="J11" s="71">
+        <v>3</v>
+      </c>
+      <c r="K11" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="71">
+        <v>88</v>
+      </c>
+      <c r="D12" s="71">
+        <v>14</v>
+      </c>
+      <c r="E12" s="71">
+        <v>1</v>
+      </c>
+      <c r="F12" s="71">
+        <v>9</v>
+      </c>
+      <c r="G12" s="71">
+        <v>8</v>
+      </c>
+      <c r="H12" s="71">
+        <v>2</v>
+      </c>
+      <c r="I12" s="71">
+        <v>3</v>
+      </c>
+      <c r="J12" s="71">
+        <v>5</v>
+      </c>
+      <c r="K12" s="73">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="71">
+        <v>65</v>
+      </c>
+      <c r="D13" s="71">
+        <v>2</v>
+      </c>
+      <c r="E13" s="71">
+        <v>2</v>
+      </c>
+      <c r="F13" s="71">
+        <v>8</v>
+      </c>
+      <c r="G13" s="71">
+        <v>5</v>
+      </c>
+      <c r="H13" s="71">
+        <v>2</v>
+      </c>
+      <c r="I13" s="71">
+        <v>1</v>
+      </c>
+      <c r="J13" s="71">
+        <v>4</v>
+      </c>
+      <c r="K13" s="73">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="71">
+        <v>52</v>
+      </c>
+      <c r="D14" s="71">
+        <v>5</v>
+      </c>
+      <c r="E14" s="71">
+        <v>9</v>
+      </c>
+      <c r="F14" s="71">
+        <v>7</v>
+      </c>
+      <c r="G14" s="71">
+        <v>2</v>
+      </c>
+      <c r="H14" s="71">
+        <v>3</v>
+      </c>
+      <c r="I14" s="71">
+        <v>2</v>
+      </c>
+      <c r="J14" s="71">
+        <v>6</v>
+      </c>
+      <c r="K14" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="71">
+        <v>62</v>
+      </c>
+      <c r="D15" s="71">
+        <v>11</v>
+      </c>
+      <c r="E15" s="71">
+        <v>6</v>
+      </c>
+      <c r="F15" s="71">
+        <v>6</v>
+      </c>
+      <c r="G15" s="71">
+        <v>1</v>
+      </c>
+      <c r="H15" s="71">
+        <v>10</v>
+      </c>
+      <c r="I15" s="71">
+        <v>8</v>
+      </c>
+      <c r="J15" s="71">
+        <v>2</v>
+      </c>
+      <c r="K15" s="73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="71">
+        <v>70</v>
+      </c>
+      <c r="D16" s="71">
+        <v>2</v>
+      </c>
+      <c r="E16" s="71">
+        <v>4</v>
+      </c>
+      <c r="F16" s="71">
+        <v>2</v>
+      </c>
+      <c r="G16" s="71">
+        <v>6</v>
+      </c>
+      <c r="H16" s="71">
+        <v>9</v>
+      </c>
+      <c r="I16" s="71">
+        <v>6</v>
+      </c>
+      <c r="J16" s="71">
+        <v>8</v>
+      </c>
+      <c r="K16" s="73">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="124" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="12.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="0.88671875" style="76" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="1.109375" style="76" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14.6640625" style="76" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="11.44140625" style="76" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A1" s="69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A2" s="77"/>
+    </row>
+    <row r="3" spans="1:23" s="78" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="U3" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="78" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="U4" s="81"/>
+    </row>
+    <row r="5" spans="1:23" s="78" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="82">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="4.5" customHeight="1">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1">
+      <c r="A7" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="91"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="90"/>
+      <c r="S7" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" s="89"/>
+      <c r="U7" s="88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="97"/>
+      <c r="U8" s="96"/>
+    </row>
+    <row r="9" spans="1:23" ht="4.5" customHeight="1">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+    </row>
+    <row r="10" spans="1:23" s="107" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="104">
+        <v>89941137</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="104">
+        <v>38871879</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="104">
+        <v>94842455043</v>
+      </c>
+      <c r="G10" s="104">
+        <v>2439.8731803780302</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="104">
+        <v>22349510</v>
+      </c>
+      <c r="J10" s="105"/>
+      <c r="K10" s="104">
+        <v>177372003792</v>
+      </c>
+      <c r="L10" s="104">
+        <v>7936.2815467542696</v>
+      </c>
+      <c r="M10" s="105"/>
+      <c r="N10" s="104">
+        <v>9906676445</v>
+      </c>
+      <c r="O10" s="104">
+        <v>443.261460542088</v>
+      </c>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="104">
+        <v>40702299</v>
+      </c>
+      <c r="R10" s="105"/>
+      <c r="S10" s="104">
+        <v>282121135280</v>
+      </c>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104">
+        <v>6931.3316989784798</v>
+      </c>
+      <c r="W10" s="108"/>
+    </row>
+    <row r="11" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A11" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="110">
+        <v>937605</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="110">
+        <v>524968</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="110">
+        <v>1290060950</v>
+      </c>
+      <c r="G11" s="110">
+        <v>2457.40873729446</v>
+      </c>
+      <c r="H11" s="112"/>
+      <c r="I11" s="110">
+        <v>311254</v>
+      </c>
+      <c r="J11" s="111"/>
+      <c r="K11" s="113">
+        <v>4764235050</v>
+      </c>
+      <c r="L11" s="113">
+        <v>15306.582566007201</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="113">
+        <v>196811450</v>
+      </c>
+      <c r="O11" s="113">
+        <v>632.31781760234401</v>
+      </c>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="110">
+        <v>493886</v>
+      </c>
+      <c r="R11" s="111"/>
+      <c r="S11" s="114">
+        <v>6251107450</v>
+      </c>
+      <c r="T11" s="110"/>
+      <c r="U11" s="114">
+        <v>12656.984506545999</v>
+      </c>
+      <c r="W11" s="115"/>
+    </row>
+    <row r="12" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A12" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="110">
+        <v>2664093</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="110">
+        <v>1084698</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="110">
+        <v>3558385347</v>
+      </c>
+      <c r="G12" s="110">
+        <v>3280.5309376434702</v>
+      </c>
+      <c r="H12" s="112"/>
+      <c r="I12" s="110">
+        <v>811390</v>
+      </c>
+      <c r="J12" s="111"/>
+      <c r="K12" s="114">
+        <v>5779293231</v>
+      </c>
+      <c r="L12" s="114">
+        <v>7122.7069978678601</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="113">
+        <v>226830894</v>
+      </c>
+      <c r="O12" s="113">
+        <v>279.55840471290003</v>
+      </c>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="110">
+        <v>1294438</v>
+      </c>
+      <c r="R12" s="111"/>
+      <c r="S12" s="110">
+        <v>9564509472</v>
+      </c>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110">
+        <v>7388.9282236769895</v>
+      </c>
+      <c r="W12" s="115"/>
+    </row>
+    <row r="13" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A13" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="110">
+        <v>630115</v>
+      </c>
+      <c r="C13" s="111"/>
+      <c r="D13" s="110">
+        <v>207667</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="110">
+        <v>762966550</v>
+      </c>
+      <c r="G13" s="110">
+        <v>3673.9903306736301</v>
+      </c>
+      <c r="H13" s="112"/>
+      <c r="I13" s="110">
+        <v>107215</v>
+      </c>
+      <c r="J13" s="111"/>
+      <c r="K13" s="110">
+        <v>574826350</v>
+      </c>
+      <c r="L13" s="110">
+        <v>5361.4358998274502</v>
+      </c>
+      <c r="M13" s="111"/>
+      <c r="N13" s="113">
+        <v>9585000</v>
+      </c>
+      <c r="O13" s="113">
+        <v>89.399804131884494</v>
+      </c>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="110">
+        <v>234993</v>
+      </c>
+      <c r="R13" s="111"/>
+      <c r="S13" s="110">
+        <v>1347377900</v>
+      </c>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110">
+        <v>5733.6937696016503</v>
+      </c>
+      <c r="W13" s="115"/>
+    </row>
+    <row r="14" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A14" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="110">
+        <v>684742</v>
+      </c>
+      <c r="C14" s="111"/>
+      <c r="D14" s="110">
+        <v>284796</v>
+      </c>
+      <c r="E14" s="111"/>
+      <c r="F14" s="110">
+        <v>621367875</v>
+      </c>
+      <c r="G14" s="110">
+        <v>2181.7998672734202</v>
+      </c>
+      <c r="H14" s="112"/>
+      <c r="I14" s="110">
+        <v>115261</v>
+      </c>
+      <c r="J14" s="111"/>
+      <c r="K14" s="110">
+        <v>585715978</v>
+      </c>
+      <c r="L14" s="110">
+        <v>5081.6492829317804</v>
+      </c>
+      <c r="M14" s="111"/>
+      <c r="N14" s="113">
+        <v>119527550</v>
+      </c>
+      <c r="O14" s="113">
+        <v>1037.0164235951399</v>
+      </c>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="110">
+        <v>294219</v>
+      </c>
+      <c r="R14" s="111"/>
+      <c r="S14" s="110">
+        <v>1326611403</v>
+      </c>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110">
+        <v>4508.9249946468399</v>
+      </c>
+      <c r="W14" s="115"/>
+    </row>
+    <row r="15" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A15" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="110">
+        <v>2185656</v>
+      </c>
+      <c r="C15" s="111"/>
+      <c r="D15" s="110">
+        <v>840380</v>
+      </c>
+      <c r="E15" s="111"/>
+      <c r="F15" s="110">
+        <v>2379525625</v>
+      </c>
+      <c r="G15" s="110">
+        <v>2831.4876900925801</v>
+      </c>
+      <c r="H15" s="112"/>
+      <c r="I15" s="110">
+        <v>388743</v>
+      </c>
+      <c r="J15" s="111"/>
+      <c r="K15" s="113">
+        <v>3142533285</v>
+      </c>
+      <c r="L15" s="113">
+        <v>8083.8324677228902</v>
+      </c>
+      <c r="M15" s="111"/>
+      <c r="N15" s="113">
+        <v>274581150</v>
+      </c>
+      <c r="O15" s="113">
+        <v>706.33078923607604</v>
+      </c>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="110">
+        <v>893279</v>
+      </c>
+      <c r="R15" s="111"/>
+      <c r="S15" s="114">
+        <v>5796640060</v>
+      </c>
+      <c r="T15" s="110"/>
+      <c r="U15" s="114">
+        <v>6489.1708637502998</v>
+      </c>
+      <c r="W15" s="115"/>
+    </row>
+    <row r="16" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A16" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="110">
+        <v>563904</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="110">
+        <v>253658</v>
+      </c>
+      <c r="E16" s="111"/>
+      <c r="F16" s="110">
+        <v>824853990</v>
+      </c>
+      <c r="G16" s="110">
+        <v>3251.83510868965</v>
+      </c>
+      <c r="H16" s="112"/>
+      <c r="I16" s="110">
+        <v>112463</v>
+      </c>
+      <c r="J16" s="111"/>
+      <c r="K16" s="114">
+        <v>717285726</v>
+      </c>
+      <c r="L16" s="114">
+        <v>6377.9707637178499</v>
+      </c>
+      <c r="M16" s="111"/>
+      <c r="N16" s="113">
+        <v>33731700</v>
+      </c>
+      <c r="O16" s="113">
+        <v>299.93597894418599</v>
+      </c>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="110">
+        <v>251402</v>
+      </c>
+      <c r="R16" s="111"/>
+      <c r="S16" s="110">
+        <v>1575871416</v>
+      </c>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110">
+        <v>6268.3328533583699</v>
+      </c>
+      <c r="W16" s="115"/>
+    </row>
+    <row r="17" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A17" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="110">
+        <v>3558368</v>
+      </c>
+      <c r="C17" s="111"/>
+      <c r="D17" s="110">
+        <v>1283148</v>
+      </c>
+      <c r="E17" s="111"/>
+      <c r="F17" s="110">
+        <v>2240295750</v>
+      </c>
+      <c r="G17" s="110">
+        <v>1745.9371405325001</v>
+      </c>
+      <c r="H17" s="112"/>
+      <c r="I17" s="110">
+        <v>441822</v>
+      </c>
+      <c r="J17" s="111"/>
+      <c r="K17" s="113">
+        <v>3152302395</v>
+      </c>
+      <c r="L17" s="113">
+        <v>7134.7791531431203</v>
+      </c>
+      <c r="M17" s="111"/>
+      <c r="N17" s="113">
+        <v>261368800</v>
+      </c>
+      <c r="O17" s="113">
+        <v>591.57036091457599</v>
+      </c>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="110">
+        <v>1144874</v>
+      </c>
+      <c r="R17" s="111"/>
+      <c r="S17" s="114">
+        <v>5653966945</v>
+      </c>
+      <c r="T17" s="110"/>
+      <c r="U17" s="114">
+        <v>4938.5058486785401</v>
+      </c>
+      <c r="W17" s="115"/>
+    </row>
+    <row r="18" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A18" s="109" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="110">
+        <v>2735124</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="110">
+        <v>905229</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="110">
+        <v>2735327190</v>
+      </c>
+      <c r="G18" s="110">
+        <v>3021.6963773807502</v>
+      </c>
+      <c r="H18" s="112"/>
+      <c r="I18" s="110">
+        <v>566053</v>
+      </c>
+      <c r="J18" s="111"/>
+      <c r="K18" s="110">
+        <v>3439114788</v>
+      </c>
+      <c r="L18" s="110">
+        <v>6075.6056199684499</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="113">
+        <v>235435772</v>
+      </c>
+      <c r="O18" s="113">
+        <v>415.92531441402099</v>
+      </c>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="110">
+        <v>1081348</v>
+      </c>
+      <c r="R18" s="111"/>
+      <c r="S18" s="110">
+        <v>6409877750</v>
+      </c>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110">
+        <v>5927.6733761934202</v>
+      </c>
+      <c r="W18" s="115"/>
+    </row>
+    <row r="19" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A19" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="110">
+        <v>6940093</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="110">
+        <v>3293654</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="110">
+        <v>6722917942</v>
+      </c>
+      <c r="G19" s="110">
+        <v>2041.1730989350999</v>
+      </c>
+      <c r="H19" s="112"/>
+      <c r="I19" s="110">
+        <v>3124564</v>
+      </c>
+      <c r="J19" s="111"/>
+      <c r="K19" s="110">
+        <v>20270173692</v>
+      </c>
+      <c r="L19" s="110">
+        <v>6487.3606980045897</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="114">
+        <v>1536058760</v>
+      </c>
+      <c r="O19" s="114">
+        <v>491.60739226336898</v>
+      </c>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="110">
+        <v>4397016</v>
+      </c>
+      <c r="R19" s="111"/>
+      <c r="S19" s="110">
+        <v>28529150394</v>
+      </c>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110">
+        <v>6488.2980625951805</v>
+      </c>
+      <c r="W19" s="115"/>
+    </row>
+    <row r="20" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A20" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="110">
+        <v>1264724</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="110">
+        <v>470039</v>
+      </c>
+      <c r="E20" s="111"/>
+      <c r="F20" s="110">
+        <v>1051764880</v>
+      </c>
+      <c r="G20" s="110">
+        <v>2237.6119428387901</v>
+      </c>
+      <c r="H20" s="112"/>
+      <c r="I20" s="110">
+        <v>215466</v>
+      </c>
+      <c r="J20" s="111"/>
+      <c r="K20" s="114">
+        <v>1179351865</v>
+      </c>
+      <c r="L20" s="114">
+        <v>5473.4940315409403</v>
+      </c>
+      <c r="M20" s="111"/>
+      <c r="N20" s="113">
+        <v>115110200</v>
+      </c>
+      <c r="O20" s="113">
+        <v>534.23834850974197</v>
+      </c>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="110">
+        <v>465588</v>
+      </c>
+      <c r="R20" s="111"/>
+      <c r="S20" s="110">
+        <v>2346226945</v>
+      </c>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110">
+        <v>5039.2770969183102</v>
+      </c>
+      <c r="W20" s="115"/>
+    </row>
+    <row r="21" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A21" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="110">
+        <v>4157421</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="110">
+        <v>2264786</v>
+      </c>
+      <c r="E21" s="111"/>
+      <c r="F21" s="110">
+        <v>8260217010</v>
+      </c>
+      <c r="G21" s="110">
+        <v>3647.23952285117</v>
+      </c>
+      <c r="H21" s="112"/>
+      <c r="I21" s="110">
+        <v>1145657</v>
+      </c>
+      <c r="J21" s="111"/>
+      <c r="K21" s="114">
+        <v>12654703570</v>
+      </c>
+      <c r="L21" s="114">
+        <v>11045.804782757799</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="113">
+        <v>289418420</v>
+      </c>
+      <c r="O21" s="113">
+        <v>252.622224627441</v>
+      </c>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="110">
+        <v>2088744</v>
+      </c>
+      <c r="R21" s="111"/>
+      <c r="S21" s="114">
+        <v>21204339000</v>
+      </c>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110">
+        <v>10151.7174914686</v>
+      </c>
+      <c r="W21" s="115"/>
+    </row>
+    <row r="22" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A22" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="110">
+        <v>2421097</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="110">
+        <v>778333</v>
+      </c>
+      <c r="E22" s="111"/>
+      <c r="F22" s="110">
+        <v>1778589010</v>
+      </c>
+      <c r="G22" s="110">
+        <v>2285.1260450218601</v>
+      </c>
+      <c r="H22" s="112"/>
+      <c r="I22" s="110">
+        <v>514700</v>
+      </c>
+      <c r="J22" s="111"/>
+      <c r="K22" s="110">
+        <v>1886986031</v>
+      </c>
+      <c r="L22" s="110">
+        <v>3666.1861880707202</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="113">
+        <v>129254340</v>
+      </c>
+      <c r="O22" s="113">
+        <v>251.125587721003</v>
+      </c>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="110">
+        <v>939140</v>
+      </c>
+      <c r="R22" s="111"/>
+      <c r="S22" s="110">
+        <v>3794829381</v>
+      </c>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110">
+        <v>4040.7493888025201</v>
+      </c>
+      <c r="W22" s="115"/>
+    </row>
+    <row r="23" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A23" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="110">
+        <v>2117077</v>
+      </c>
+      <c r="C23" s="111"/>
+      <c r="D23" s="110">
+        <v>966038</v>
+      </c>
+      <c r="E23" s="111"/>
+      <c r="F23" s="110">
+        <v>2219244389</v>
+      </c>
+      <c r="G23" s="110">
+        <v>2297.2640713926398</v>
+      </c>
+      <c r="H23" s="112"/>
+      <c r="I23" s="110">
+        <v>347803</v>
+      </c>
+      <c r="J23" s="111"/>
+      <c r="K23" s="114">
+        <v>2367141300</v>
+      </c>
+      <c r="L23" s="114">
+        <v>6805.9829846206003</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="113">
+        <v>253915450</v>
+      </c>
+      <c r="O23" s="113">
+        <v>730.05537617559401</v>
+      </c>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="110">
+        <v>887521</v>
+      </c>
+      <c r="R23" s="111"/>
+      <c r="S23" s="110">
+        <v>4840301139</v>
+      </c>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110">
+        <v>5453.7313922712801</v>
+      </c>
+      <c r="W23" s="115"/>
+    </row>
+    <row r="24" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A24" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="110">
+        <v>5834255</v>
+      </c>
+      <c r="C24" s="111"/>
+      <c r="D24" s="110">
+        <v>2672915</v>
+      </c>
+      <c r="E24" s="111"/>
+      <c r="F24" s="110">
+        <v>6639900745</v>
+      </c>
+      <c r="G24" s="110">
+        <v>2484.1421238610301</v>
+      </c>
+      <c r="H24" s="112"/>
+      <c r="I24" s="110">
+        <v>1643149</v>
+      </c>
+      <c r="J24" s="111"/>
+      <c r="K24" s="110">
+        <v>18935776085</v>
+      </c>
+      <c r="L24" s="110">
+        <v>11524.0772960943</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="113">
+        <v>991814350</v>
+      </c>
+      <c r="O24" s="113">
+        <v>603.60585071712899</v>
+      </c>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="110">
+        <v>2851322</v>
+      </c>
+      <c r="R24" s="111"/>
+      <c r="S24" s="110">
+        <v>26567491180</v>
+      </c>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110">
+        <v>9317.6046689921404</v>
+      </c>
+      <c r="W24" s="115"/>
+    </row>
+    <row r="25" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A25" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="110">
+        <v>13033035</v>
+      </c>
+      <c r="C25" s="111"/>
+      <c r="D25" s="110">
+        <v>7159958</v>
+      </c>
+      <c r="E25" s="111"/>
+      <c r="F25" s="110">
+        <v>12694892252</v>
+      </c>
+      <c r="G25" s="110">
+        <v>1773.04004464831</v>
+      </c>
+      <c r="H25" s="112"/>
+      <c r="I25" s="110">
+        <v>4945895</v>
+      </c>
+      <c r="J25" s="111"/>
+      <c r="K25" s="114">
+        <v>41798347877</v>
+      </c>
+      <c r="L25" s="114">
+        <v>8451.1191355659594</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="114">
+        <v>958805150</v>
+      </c>
+      <c r="O25" s="114">
+        <v>193.85877581307301</v>
+      </c>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="110">
+        <v>7842999</v>
+      </c>
+      <c r="R25" s="111"/>
+      <c r="S25" s="114">
+        <v>55452045279</v>
+      </c>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110">
+        <v>7070.2604040877704</v>
+      </c>
+      <c r="W25" s="115"/>
+    </row>
+    <row r="26" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A26" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="110">
+        <v>3243154</v>
+      </c>
+      <c r="C26" s="111"/>
+      <c r="D26" s="110">
+        <v>1157473</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="110">
+        <v>3197929315</v>
+      </c>
+      <c r="G26" s="110">
+        <v>2762.8543516781801</v>
+      </c>
+      <c r="H26" s="116"/>
+      <c r="I26" s="110">
+        <v>528693</v>
+      </c>
+      <c r="J26" s="111"/>
+      <c r="K26" s="114">
+        <v>5947202846</v>
+      </c>
+      <c r="L26" s="114">
+        <v>11248.877601935301</v>
+      </c>
+      <c r="M26" s="111"/>
+      <c r="N26" s="113">
+        <v>609080200</v>
+      </c>
+      <c r="O26" s="113">
+        <v>1152.0489206401401</v>
+      </c>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="110">
+        <v>1165144</v>
+      </c>
+      <c r="R26" s="111"/>
+      <c r="S26" s="114">
+        <v>9754212361</v>
+      </c>
+      <c r="T26" s="110"/>
+      <c r="U26" s="114">
+        <v>8371.6796902357091</v>
+      </c>
+      <c r="W26" s="115"/>
+    </row>
+    <row r="27" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="110">
+        <v>1482215</v>
+      </c>
+      <c r="C27" s="111"/>
+      <c r="D27" s="110">
+        <v>693426</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="110">
+        <v>1657483660</v>
+      </c>
+      <c r="G27" s="110">
+        <v>2390.2819623146502</v>
+      </c>
+      <c r="H27" s="116"/>
+      <c r="I27" s="110">
+        <v>414580</v>
+      </c>
+      <c r="J27" s="111"/>
+      <c r="K27" s="114">
+        <v>3278683426</v>
+      </c>
+      <c r="L27" s="114">
+        <v>7908.4457185585397</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="113">
+        <v>367037900</v>
+      </c>
+      <c r="O27" s="113">
+        <v>885.32466592696198</v>
+      </c>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="110">
+        <v>729431</v>
+      </c>
+      <c r="R27" s="111"/>
+      <c r="S27" s="110">
+        <v>5303204986</v>
+      </c>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110">
+        <v>7270.3312390068404</v>
+      </c>
+      <c r="W27" s="115"/>
+    </row>
+    <row r="28" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="109" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="110">
+        <v>949869</v>
+      </c>
+      <c r="C28" s="111"/>
+      <c r="D28" s="110">
+        <v>284830</v>
+      </c>
+      <c r="E28" s="111"/>
+      <c r="F28" s="110">
+        <v>811602895</v>
+      </c>
+      <c r="G28" s="110">
+        <v>2849.4291156128202</v>
+      </c>
+      <c r="H28" s="116"/>
+      <c r="I28" s="110">
+        <v>132624</v>
+      </c>
+      <c r="J28" s="111"/>
+      <c r="K28" s="113">
+        <v>1036621792</v>
+      </c>
+      <c r="L28" s="113">
+        <v>7816.2458680178597</v>
+      </c>
+      <c r="M28" s="111"/>
+      <c r="N28" s="113">
+        <v>13005100</v>
+      </c>
+      <c r="O28" s="113">
+        <v>98.059928821329507</v>
+      </c>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="110">
+        <v>300167</v>
+      </c>
+      <c r="R28" s="111"/>
+      <c r="S28" s="114">
+        <v>1861229787</v>
+      </c>
+      <c r="T28" s="110"/>
+      <c r="U28" s="114">
+        <v>6200.6475961714596</v>
+      </c>
+      <c r="W28" s="115"/>
+    </row>
+    <row r="29" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="110">
+        <v>3987711</v>
+      </c>
+      <c r="C29" s="111"/>
+      <c r="D29" s="110">
+        <v>1735991</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="110">
+        <v>4820528608</v>
+      </c>
+      <c r="G29" s="110">
+        <v>2776.8165894869298</v>
+      </c>
+      <c r="H29" s="116"/>
+      <c r="I29" s="110">
+        <v>976868</v>
+      </c>
+      <c r="J29" s="111"/>
+      <c r="K29" s="110">
+        <v>4489652650</v>
+      </c>
+      <c r="L29" s="110">
+        <v>4595.9665481927996</v>
+      </c>
+      <c r="M29" s="111"/>
+      <c r="N29" s="113">
+        <v>444833500</v>
+      </c>
+      <c r="O29" s="113">
+        <v>455.36705061482201</v>
+      </c>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="110">
+        <v>1879652</v>
+      </c>
+      <c r="R29" s="111"/>
+      <c r="S29" s="110">
+        <v>9755014758</v>
+      </c>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110">
+        <v>5189.7983020261199</v>
+      </c>
+      <c r="W29" s="115"/>
+    </row>
+    <row r="30" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="110">
+        <v>2804007</v>
+      </c>
+      <c r="C30" s="111"/>
+      <c r="D30" s="110">
+        <v>926414</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="114">
+        <v>2931292833</v>
+      </c>
+      <c r="G30" s="110">
+        <v>3164.1283842860798</v>
+      </c>
+      <c r="H30" s="116"/>
+      <c r="I30" s="110">
+        <v>447027</v>
+      </c>
+      <c r="J30" s="111"/>
+      <c r="K30" s="114">
+        <v>2607281720</v>
+      </c>
+      <c r="L30" s="114">
+        <v>5832.49271296812</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="113">
+        <v>447628560</v>
+      </c>
+      <c r="O30" s="113">
+        <v>1001.34569052876</v>
+      </c>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="110">
+        <v>915044</v>
+      </c>
+      <c r="R30" s="111"/>
+      <c r="S30" s="110">
+        <v>5986203113</v>
+      </c>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110">
+        <v>6541.9838969492203</v>
+      </c>
+      <c r="W30" s="115"/>
+    </row>
+    <row r="31" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A31" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="110">
+        <v>4486566</v>
+      </c>
+      <c r="C31" s="111"/>
+      <c r="D31" s="110">
+        <v>2169893</v>
+      </c>
+      <c r="E31" s="111"/>
+      <c r="F31" s="110">
+        <v>3444873240</v>
+      </c>
+      <c r="G31" s="110">
+        <v>1587.5774704098301</v>
+      </c>
+      <c r="H31" s="116"/>
+      <c r="I31" s="110">
+        <v>1189012</v>
+      </c>
+      <c r="J31" s="111"/>
+      <c r="K31" s="110">
+        <v>8362800426</v>
+      </c>
+      <c r="L31" s="110">
+        <v>7033.4028807110399</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="114">
+        <v>348062700</v>
+      </c>
+      <c r="O31" s="114">
+        <v>292.73270580952902</v>
+      </c>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="110">
+        <v>2124835</v>
+      </c>
+      <c r="R31" s="111"/>
+      <c r="S31" s="110">
+        <v>12155736366</v>
+      </c>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110">
+        <v>5720.7907277506301</v>
+      </c>
+      <c r="W31" s="115"/>
+    </row>
+    <row r="32" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A32" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="110">
+        <v>1525654</v>
+      </c>
+      <c r="C32" s="111"/>
+      <c r="D32" s="110">
+        <v>789830</v>
+      </c>
+      <c r="E32" s="111"/>
+      <c r="F32" s="110">
+        <v>2755728997</v>
+      </c>
+      <c r="G32" s="110">
+        <v>3489.0153539369198</v>
+      </c>
+      <c r="H32" s="116"/>
+      <c r="I32" s="110">
+        <v>437666</v>
+      </c>
+      <c r="J32" s="111"/>
+      <c r="K32" s="113">
+        <v>3951134678</v>
+      </c>
+      <c r="L32" s="113">
+        <v>9027.7395959475907</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="114">
+        <v>190852950</v>
+      </c>
+      <c r="O32" s="114">
+        <v>436.069856922859</v>
+      </c>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="110">
+        <v>795519</v>
+      </c>
+      <c r="R32" s="111"/>
+      <c r="S32" s="114">
+        <v>6897716625</v>
+      </c>
+      <c r="T32" s="110"/>
+      <c r="U32" s="114">
+        <v>8670.7126102582097</v>
+      </c>
+      <c r="W32" s="115"/>
+    </row>
+    <row r="33" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A33" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="110">
+        <v>1280787</v>
+      </c>
+      <c r="C33" s="111"/>
+      <c r="D33" s="110">
+        <v>601575</v>
+      </c>
+      <c r="E33" s="111"/>
+      <c r="F33" s="110">
+        <v>1730846090</v>
+      </c>
+      <c r="G33" s="110">
+        <v>2877.1908573328301</v>
+      </c>
+      <c r="H33" s="116"/>
+      <c r="I33" s="110">
+        <v>343906</v>
+      </c>
+      <c r="J33" s="111"/>
+      <c r="K33" s="114">
+        <v>2416853051</v>
+      </c>
+      <c r="L33" s="110">
+        <v>7027.6559612219598</v>
+      </c>
+      <c r="M33" s="111"/>
+      <c r="N33" s="113">
+        <v>54457900</v>
+      </c>
+      <c r="O33" s="113">
+        <v>158.351119201177</v>
+      </c>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="110">
+        <v>636095</v>
+      </c>
+      <c r="R33" s="111"/>
+      <c r="S33" s="110">
+        <v>4202157041</v>
+      </c>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110">
+        <v>6606.1783868761704</v>
+      </c>
+      <c r="W33" s="115"/>
+    </row>
+    <row r="34" spans="1:23" s="117" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A34" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="110">
+        <v>2027746</v>
+      </c>
+      <c r="C34" s="111"/>
+      <c r="D34" s="110">
+        <v>818023</v>
+      </c>
+      <c r="E34" s="111"/>
+      <c r="F34" s="110">
+        <v>2134589840</v>
+      </c>
+      <c r="G34" s="110">
+        <v>2609.4496609508501</v>
+      </c>
+      <c r="H34" s="116"/>
+      <c r="I34" s="110">
+        <v>407645</v>
+      </c>
+      <c r="J34" s="111"/>
+      <c r="K34" s="114">
+        <v>2025543054</v>
+      </c>
+      <c r="L34" s="114">
+        <v>4968.8897300347098</v>
+      </c>
+      <c r="M34" s="111"/>
+      <c r="N34" s="113">
+        <v>49297150</v>
+      </c>
+      <c r="O34" s="113">
+        <v>120.931570361466</v>
+      </c>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="110">
+        <v>816048</v>
+      </c>
+      <c r="R34" s="111"/>
+      <c r="S34" s="110">
+        <v>4209430044</v>
+      </c>
+      <c r="T34" s="110"/>
+      <c r="U34" s="110">
+        <v>5158.3118198929496</v>
+      </c>
+      <c r="W34" s="115"/>
+    </row>
+    <row r="35" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A35" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="110">
+        <v>2198720</v>
+      </c>
+      <c r="C35" s="111"/>
+      <c r="D35" s="110">
+        <v>581020</v>
+      </c>
+      <c r="E35" s="111"/>
+      <c r="F35" s="110">
+        <v>1884413562</v>
+      </c>
+      <c r="G35" s="110">
+        <v>3243.2851915596698</v>
+      </c>
+      <c r="H35" s="112"/>
+      <c r="I35" s="110">
+        <v>475879</v>
+      </c>
+      <c r="J35" s="111"/>
+      <c r="K35" s="110">
+        <v>2444444972</v>
+      </c>
+      <c r="L35" s="110">
+        <v>5136.6943529762802</v>
+      </c>
+      <c r="M35" s="111"/>
+      <c r="N35" s="113">
+        <v>114429100</v>
+      </c>
+      <c r="O35" s="113">
+        <v>240.458393835408</v>
+      </c>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="110">
+        <v>766471</v>
+      </c>
+      <c r="R35" s="111"/>
+      <c r="S35" s="110">
+        <v>4443287634</v>
+      </c>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110">
+        <v>5797.0720797003396</v>
+      </c>
+      <c r="W35" s="115"/>
+    </row>
+    <row r="36" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A36" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="110">
+        <v>2229710</v>
+      </c>
+      <c r="C36" s="111"/>
+      <c r="D36" s="110">
+        <v>935965</v>
+      </c>
+      <c r="E36" s="111"/>
+      <c r="F36" s="110">
+        <v>2969605228</v>
+      </c>
+      <c r="G36" s="110">
+        <v>3172.77379816553</v>
+      </c>
+      <c r="H36" s="112"/>
+      <c r="I36" s="110">
+        <v>480034</v>
+      </c>
+      <c r="J36" s="111"/>
+      <c r="K36" s="114">
+        <v>2237253354</v>
+      </c>
+      <c r="L36" s="110">
+        <v>4660.6143606494497</v>
+      </c>
+      <c r="M36" s="111"/>
+      <c r="N36" s="113">
+        <v>415333600</v>
+      </c>
+      <c r="O36" s="113">
+        <v>865.21704712582903</v>
+      </c>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="110">
+        <v>987286</v>
+      </c>
+      <c r="R36" s="111"/>
+      <c r="S36" s="110">
+        <v>5622192182</v>
+      </c>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110">
+        <v>5694.5932404592004</v>
+      </c>
+      <c r="W36" s="115"/>
+    </row>
+    <row r="37" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A37" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="110">
+        <v>1695920</v>
+      </c>
+      <c r="C37" s="111"/>
+      <c r="D37" s="110">
+        <v>783643</v>
+      </c>
+      <c r="E37" s="111"/>
+      <c r="F37" s="110">
+        <v>1985034205</v>
+      </c>
+      <c r="G37" s="110">
+        <v>2533.0848422049298</v>
+      </c>
+      <c r="H37" s="112"/>
+      <c r="I37" s="110">
+        <v>425262</v>
+      </c>
+      <c r="J37" s="111"/>
+      <c r="K37" s="114">
+        <v>2772461599</v>
+      </c>
+      <c r="L37" s="114">
+        <v>6519.4200257723496</v>
+      </c>
+      <c r="M37" s="111"/>
+      <c r="N37" s="114">
+        <v>162121019</v>
+      </c>
+      <c r="O37" s="114">
+        <v>381.22620643274001</v>
+      </c>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="110">
+        <v>888905</v>
+      </c>
+      <c r="R37" s="111"/>
+      <c r="S37" s="110">
+        <v>4919616823</v>
+      </c>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110">
+        <v>5534.4686136313803</v>
+      </c>
+      <c r="W37" s="115"/>
+    </row>
+    <row r="38" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A38" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="110">
+        <v>2683009</v>
+      </c>
+      <c r="C38" s="111"/>
+      <c r="D38" s="110">
+        <v>928116</v>
+      </c>
+      <c r="E38" s="111"/>
+      <c r="F38" s="110">
+        <v>2460154862</v>
+      </c>
+      <c r="G38" s="110">
+        <v>2650.69760891957</v>
+      </c>
+      <c r="H38" s="112"/>
+      <c r="I38" s="110">
+        <v>432199</v>
+      </c>
+      <c r="J38" s="111"/>
+      <c r="K38" s="114">
+        <v>2706468010</v>
+      </c>
+      <c r="L38" s="114">
+        <v>6262.0876263017699</v>
+      </c>
+      <c r="M38" s="111"/>
+      <c r="N38" s="113">
+        <v>172604650</v>
+      </c>
+      <c r="O38" s="113">
+        <v>399.363834715027</v>
+      </c>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="110">
+        <v>1000831</v>
+      </c>
+      <c r="R38" s="111"/>
+      <c r="S38" s="114">
+        <v>5339227522</v>
+      </c>
+      <c r="T38" s="110"/>
+      <c r="U38" s="114">
+        <v>5334.7943079301103</v>
+      </c>
+      <c r="W38" s="115"/>
+    </row>
+    <row r="39" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A39" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="110">
+        <v>946877</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="110">
+        <v>522100</v>
+      </c>
+      <c r="E39" s="111"/>
+      <c r="F39" s="110">
+        <v>995167895</v>
+      </c>
+      <c r="G39" s="110">
+        <v>1906.0867554108399</v>
+      </c>
+      <c r="H39" s="112"/>
+      <c r="I39" s="110">
+        <v>227351</v>
+      </c>
+      <c r="J39" s="111"/>
+      <c r="K39" s="114">
+        <v>1890017710</v>
+      </c>
+      <c r="L39" s="114">
+        <v>8313.2148528046891</v>
+      </c>
+      <c r="M39" s="111"/>
+      <c r="N39" s="113">
+        <v>133890830</v>
+      </c>
+      <c r="O39" s="113">
+        <v>588.91682904407696</v>
+      </c>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="110">
+        <v>499082</v>
+      </c>
+      <c r="R39" s="111"/>
+      <c r="S39" s="110">
+        <v>3019076435</v>
+      </c>
+      <c r="T39" s="110"/>
+      <c r="U39" s="110">
+        <v>6049.25931009333</v>
+      </c>
+      <c r="W39" s="115"/>
+    </row>
+    <row r="40" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A40" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="110">
+        <v>5940561</v>
+      </c>
+      <c r="C40" s="111"/>
+      <c r="D40" s="110">
+        <v>2061326</v>
+      </c>
+      <c r="E40" s="111"/>
+      <c r="F40" s="110">
+        <v>4985690598</v>
+      </c>
+      <c r="G40" s="110">
+        <v>2418.68127506275</v>
+      </c>
+      <c r="H40" s="112"/>
+      <c r="I40" s="110">
+        <v>846328</v>
+      </c>
+      <c r="J40" s="111"/>
+      <c r="K40" s="114">
+        <v>7349681306</v>
+      </c>
+      <c r="L40" s="114">
+        <v>8684.1996318212296</v>
+      </c>
+      <c r="M40" s="111"/>
+      <c r="N40" s="113">
+        <v>576913200</v>
+      </c>
+      <c r="O40" s="113">
+        <v>681.66620979100298</v>
+      </c>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="110">
+        <v>2002544</v>
+      </c>
+      <c r="R40" s="111"/>
+      <c r="S40" s="110">
+        <v>12912285104</v>
+      </c>
+      <c r="T40" s="110"/>
+      <c r="U40" s="110">
+        <v>6447.94077133886</v>
+      </c>
+      <c r="W40" s="115"/>
+    </row>
+    <row r="41" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A41" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="110">
+        <v>1617846</v>
+      </c>
+      <c r="C41" s="111"/>
+      <c r="D41" s="110">
+        <v>549551</v>
+      </c>
+      <c r="E41" s="111"/>
+      <c r="F41" s="110">
+        <v>1283288230</v>
+      </c>
+      <c r="G41" s="110">
+        <v>2335.1576650756701</v>
+      </c>
+      <c r="H41" s="112"/>
+      <c r="I41" s="110">
+        <v>240789</v>
+      </c>
+      <c r="J41" s="111"/>
+      <c r="K41" s="110">
+        <v>1091504510</v>
+      </c>
+      <c r="L41" s="110">
+        <v>4533.0331119777102</v>
+      </c>
+      <c r="M41" s="111"/>
+      <c r="N41" s="113">
+        <v>62609700</v>
+      </c>
+      <c r="O41" s="113">
+        <v>260.01893774217302</v>
+      </c>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="110">
+        <v>591730</v>
+      </c>
+      <c r="R41" s="111"/>
+      <c r="S41" s="110">
+        <v>2437402440</v>
+      </c>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110">
+        <v>4119.1125006337397</v>
+      </c>
+      <c r="W41" s="115"/>
+    </row>
+    <row r="42" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A42" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="119">
+        <v>1113476</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="119">
+        <v>342436</v>
+      </c>
+      <c r="E42" s="120"/>
+      <c r="F42" s="119">
+        <v>1013915480</v>
+      </c>
+      <c r="G42" s="119">
+        <v>2960.8904437617498</v>
+      </c>
+      <c r="H42" s="121"/>
+      <c r="I42" s="119">
+        <v>198048</v>
+      </c>
+      <c r="J42" s="120"/>
+      <c r="K42" s="122">
+        <v>1005831265</v>
+      </c>
+      <c r="L42" s="122">
+        <v>5078.7246778558701</v>
+      </c>
+      <c r="M42" s="120"/>
+      <c r="N42" s="123">
+        <v>53780400</v>
+      </c>
+      <c r="O42" s="123">
+        <v>271.55235094522499</v>
+      </c>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="119">
+        <v>407636</v>
+      </c>
+      <c r="R42" s="120"/>
+      <c r="S42" s="119">
+        <v>2073527145</v>
+      </c>
+      <c r="T42" s="119"/>
+      <c r="U42" s="119">
+        <v>5086.7125204839604</v>
+      </c>
+      <c r="W42" s="115"/>
+    </row>
+    <row r="43" spans="1:23" ht="4.5" customHeight="1"/>
+    <row r="44" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+    </row>
+    <row r="45" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A45" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+    </row>
+    <row r="46" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A46" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="131"/>
+      <c r="P46" s="131"/>
+      <c r="Q46" s="131"/>
+      <c r="R46" s="131"/>
+      <c r="S46" s="131"/>
+      <c r="T46" s="131"/>
+      <c r="U46" s="131"/>
+    </row>
+    <row r="47" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A47" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="131"/>
+      <c r="P47" s="131"/>
+      <c r="Q47" s="131"/>
+      <c r="R47" s="131"/>
+      <c r="S47" s="131"/>
+      <c r="T47" s="131"/>
+      <c r="U47" s="131"/>
+    </row>
+    <row r="48" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="139"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
+      <c r="Q48" s="131"/>
+      <c r="R48" s="131"/>
+      <c r="S48" s="131"/>
+      <c r="T48" s="131"/>
+      <c r="U48" s="131"/>
+    </row>
+    <row r="49" spans="1:23" s="126" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A49" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="141"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="131"/>
+      <c r="P49" s="131"/>
+      <c r="Q49" s="131"/>
+      <c r="R49" s="131"/>
+      <c r="S49" s="131"/>
+      <c r="T49" s="131"/>
+      <c r="U49" s="131"/>
+    </row>
+    <row r="50" spans="1:23" s="142" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A50" s="142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A51" s="143" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="144"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="144"/>
+      <c r="S51" s="144"/>
+      <c r="T51" s="144"/>
+      <c r="U51" s="144"/>
+    </row>
+    <row r="52" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A52" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="144"/>
+      <c r="P52" s="144"/>
+      <c r="Q52" s="144"/>
+      <c r="R52" s="144"/>
+      <c r="S52" s="144"/>
+      <c r="T52" s="144"/>
+      <c r="U52" s="144"/>
+      <c r="V52" s="145"/>
+      <c r="W52" s="145"/>
+    </row>
+    <row r="53" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A53" s="143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="146"/>
+      <c r="P53" s="146"/>
+      <c r="Q53" s="146"/>
+      <c r="R53" s="146"/>
+      <c r="S53" s="146"/>
+      <c r="T53" s="146"/>
+      <c r="U53" s="146"/>
+    </row>
+    <row r="54" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A54" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="144"/>
+      <c r="S54" s="144"/>
+      <c r="T54" s="144"/>
+      <c r="U54" s="144"/>
+    </row>
+    <row r="55" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A55" s="76"/>
+    </row>
+    <row r="56" spans="1:23" ht="12.75" customHeight="1">
+      <c r="A56" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="149"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="149"/>
+      <c r="G56" s="149"/>
+      <c r="H56" s="149"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="W3" location="Índice!A1" display="Índice"/>
+    <hyperlink ref="B10" tooltip="CV%: 0.5; ERROR:     448 191; LI90%:     89 203 928; LS90%:     90 678 346"/>
+    <hyperlink ref="B11" tooltip="CV%: 2.1; ERROR:     19 995; LI90%:      904 716; LS90%:      970 494"/>
+    <hyperlink ref="B12" tooltip="CV%: 1.9; ERROR:     49 755; LI90%:     2 582 253; LS90%:     2 745 933"/>
+    <hyperlink ref="B13" tooltip="CV%: 3.0; ERROR:     19 209; LI90%:      598 518; LS90%:      661 712"/>
+    <hyperlink ref="B14" tooltip="CV%: 2.7; ERROR:     18 199; LI90%:      654 807; LS90%:      714 677"/>
+    <hyperlink ref="B15" tooltip="CV%: 2.1; ERROR:     45 183; LI90%:     2 111 336; LS90%:     2 259 976"/>
+    <hyperlink ref="B16" tooltip="CV%: 1.6; ERROR:     8 983; LI90%:      549 129; LS90%:      578 679"/>
+    <hyperlink ref="B17" tooltip="CV%: 1.7; ERROR:     59 039; LI90%:     3 461 257; LS90%:     3 655 479"/>
+    <hyperlink ref="B18" tooltip="CV%: 2.2; ERROR:     61 039; LI90%:     2 634 723; LS90%:     2 835 525"/>
+    <hyperlink ref="B19" tooltip="CV%: 1.0; ERROR:     72 477; LI90%:     6 820 879; LS90%:     7 059 307"/>
+    <hyperlink ref="B20" tooltip="CV%: 1.8; ERROR:     22 555; LI90%:     1 227 624; LS90%:     1 301 824"/>
+    <hyperlink ref="B21" tooltip="CV%: 2.1; ERROR:     86 497; LI90%:     4 015 146; LS90%:     4 299 696"/>
+    <hyperlink ref="B22" tooltip="CV%: 2.2; ERROR:     52 221; LI90%:     2 335 200; LS90%:     2 506 994"/>
+    <hyperlink ref="B23" tooltip="CV%: 2.2; ERROR:     45 892; LI90%:     2 041 592; LS90%:     2 192 562"/>
+    <hyperlink ref="B24" tooltip="CV%: 2.3; ERROR:     133 888; LI90%:     5 614 029; LS90%:     6 054 481"/>
+    <hyperlink ref="B25" tooltip="CV%: 2.2; ERROR:     284 422; LI90%:     12 565 203; LS90%:     13 500 867"/>
+    <hyperlink ref="B26" tooltip="CV%: 1.7; ERROR:     53 563; LI90%:     3 155 051; LS90%:     3 331 257"/>
+    <hyperlink ref="B27" tooltip="CV%: 1.4; ERROR:     21 420; LI90%:     1 446 983; LS90%:     1 517 447"/>
+    <hyperlink ref="B28" tooltip="CV%: 2.0; ERROR:     18 914; LI90%:      918 759; LS90%:      980 979"/>
+    <hyperlink ref="B29" tooltip="CV%: 1.7; ERROR:     66 905; LI90%:     3 877 662; LS90%:     4 097 760"/>
+    <hyperlink ref="B30" tooltip="CV%: 2.2; ERROR:     60 457; LI90%:     2 704 564; LS90%:     2 903 450"/>
+    <hyperlink ref="B31" tooltip="CV%: 4.3; ERROR:     193 588; LI90%:     4 168 142; LS90%:     4 804 990"/>
+    <hyperlink ref="B32" tooltip="CV%: 2.3; ERROR:     34 914; LI90%:     1 468 225; LS90%:     1 583 083"/>
+    <hyperlink ref="B33" tooltip="CV%: 2.7; ERROR:     34 720; LI90%:     1 223 678; LS90%:     1 337 896"/>
+    <hyperlink ref="B34" tooltip="CV%: 3.0; ERROR:     61 079; LI90%:     1 927 280; LS90%:     2 128 212"/>
+    <hyperlink ref="B35" tooltip="CV%: 1.6; ERROR:     35 930; LI90%:     2 139 621; LS90%:     2 257 819"/>
+    <hyperlink ref="B36" tooltip="CV%: 2.3; ERROR:     51 719; LI90%:     2 144 639; LS90%:     2 314 781"/>
+    <hyperlink ref="B37" tooltip="CV%: 1.7; ERROR:     29 541; LI90%:     1 647 330; LS90%:     1 744 510"/>
+    <hyperlink ref="B38" tooltip="CV%: 1.5; ERROR:     41 510; LI90%:     2 614 732; LS90%:     2 751 286"/>
+    <hyperlink ref="B39" tooltip="CV%: 2.1; ERROR:     19 637; LI90%:      914 577; LS90%:      979 177"/>
+    <hyperlink ref="B40" tooltip="CV%: 1.4; ERROR:     86 001; LI90%:     5 799 101; LS90%:     6 082 021"/>
+    <hyperlink ref="B41" tooltip="CV%: 1.6; ERROR:     26 194; LI90%:     1 574 761; LS90%:     1 660 931"/>
+    <hyperlink ref="B42" tooltip="CV%: 2.2; ERROR:     24 295; LI90%:     1 073 514; LS90%:     1 153 438"/>
+    <hyperlink ref="D10" tooltip="CV%: 0.9; ERROR:     364 366; LI90%:     38 272 550; LS90%:     39 471 208"/>
+    <hyperlink ref="D11" tooltip="CV%: 3.7; ERROR:     19 252; LI90%:      493 301; LS90%:      556 635"/>
+    <hyperlink ref="D12" tooltip="CV%: 3.8; ERROR:     41 712; LI90%:     1 016 087; LS90%:     1 153 309"/>
+    <hyperlink ref="D13" tooltip="CV%: 5.4; ERROR:     11 141; LI90%:      189 342; LS90%:      225 992"/>
+    <hyperlink ref="D14" tooltip="CV%: 4.4; ERROR:     12 486; LI90%:      264 258; LS90%:      305 334"/>
+    <hyperlink ref="D15" tooltip="CV%: 3.9; ERROR:     33 043; LI90%:      786 029; LS90%:      894 731"/>
+    <hyperlink ref="D16" tooltip="CV%: 3.2; ERROR:     8 020; LI90%:      240 466; LS90%:      266 850"/>
+    <hyperlink ref="D17" tooltip="CV%: 4.2; ERROR:     53 634; LI90%:     1 194 928; LS90%:     1 371 368"/>
+    <hyperlink ref="D18" tooltip="CV%: 3.5; ERROR:     31 582; LI90%:      853 282; LS90%:      957 176"/>
+    <hyperlink ref="D19" tooltip="CV%: 2.1; ERROR:     70 085; LI90%:     3 178 375; LS90%:     3 408 933"/>
+    <hyperlink ref="D20" tooltip="CV%: 3.3; ERROR:     15 718; LI90%:      444 186; LS90%:      495 892"/>
+    <hyperlink ref="D21" tooltip="CV%: 3.8; ERROR:     86 028; LI90%:     2 123 283; LS90%:     2 406 289"/>
+    <hyperlink ref="D22" tooltip="CV%: 4.6; ERROR:     35 922; LI90%:      719 246; LS90%:      837 420"/>
+    <hyperlink ref="D23" tooltip="CV%: 4.6; ERROR:     44 276; LI90%:      893 211; LS90%:     1 038 865"/>
+    <hyperlink ref="D24" tooltip="CV%: 4.1; ERROR:     108 307; LI90%:     2 494 766; LS90%:     2 851 064"/>
+    <hyperlink ref="D25" tooltip="CV%: 3.1; ERROR:     219 316; LI90%:     6 799 216; LS90%:     7 520 700"/>
+    <hyperlink ref="D26" tooltip="CV%: 3.7; ERROR:     42 862; LI90%:     1 086 971; LS90%:     1 227 975"/>
+    <hyperlink ref="D27" tooltip="CV%: 2.9; ERROR:     20 058; LI90%:      660 433; LS90%:      726 419"/>
+    <hyperlink ref="D28" tooltip="CV%: 5.2; ERROR:     14 715; LI90%:      260 626; LS90%:      309 034"/>
+    <hyperlink ref="D29" tooltip="CV%: 3.4; ERROR:     58 644; LI90%:     1 639 530; LS90%:     1 832 452"/>
+    <hyperlink ref="D30" tooltip="CV%: 5.5; ERROR:     51 184; LI90%:      842 224; LS90%:     1 010 604"/>
+    <hyperlink ref="D31" tooltip="CV%: 7.3; ERROR:     158 576; LI90%:     1 909 058; LS90%:     2 430 728"/>
+    <hyperlink ref="D32" tooltip="CV%: 4.2; ERROR:     32 862; LI90%:      735 776; LS90%:      843 884"/>
+    <hyperlink ref="D33" tooltip="CV%: 3.8; ERROR:     22 706; LI90%:      564 227; LS90%:      638 923"/>
+    <hyperlink ref="D34" tooltip="CV%: 7.7; ERROR:     63 255; LI90%:      713 978; LS90%:      922 068"/>
+    <hyperlink ref="D35" tooltip="CV%: 4.0; ERROR:     23 213; LI90%:      542 838; LS90%:      619 202"/>
+    <hyperlink ref="D36" tooltip="CV%: 3.8; ERROR:     35 779; LI90%:      877 114; LS90%:      994 816"/>
+    <hyperlink ref="D37" tooltip="CV%: 3.1; ERROR:     24 406; LI90%:      743 499; LS90%:      823 787"/>
+    <hyperlink ref="D38" tooltip="CV%: 3.1; ERROR:     29 150; LI90%:      880 169; LS90%:      976 063"/>
+    <hyperlink ref="D39" tooltip="CV%: 3.8; ERROR:     19 829; LI90%:      489 484; LS90%:      554 716"/>
+    <hyperlink ref="D40" tooltip="CV%: 3.8; ERROR:     77 880; LI90%:     1 933 224; LS90%:     2 189 428"/>
+    <hyperlink ref="D41" tooltip="CV%: 3.4; ERROR:     18 759; LI90%:      518 696; LS90%:      580 406"/>
+    <hyperlink ref="D42" tooltip="CV%: 5.6; ERROR:     19 207; LI90%:      310 844; LS90%:      374 028"/>
+    <hyperlink ref="G10" tooltip="CV%: 2.0; ERROR:      49; LI90%:      2 360; LS90%:      2 520"/>
+    <hyperlink ref="G11" tooltip="CV%: 9.1; ERROR:      223; LI90%:      2 091; LS90%:      2 824"/>
+    <hyperlink ref="G12" tooltip="CV%: 12.2; ERROR:      401; LI90%:      2 621; LS90%:      3 940"/>
+    <hyperlink ref="G13" tooltip="CV%: 6.5; ERROR:      240; LI90%:      3 279; LS90%:      4 069"/>
+    <hyperlink ref="G14" tooltip="CV%: 6.9; ERROR:      151; LI90%:      1 933; LS90%:      2 431"/>
+    <hyperlink ref="G15" tooltip="CV%: 10.6; ERROR:      299; LI90%:      2 339; LS90%:      3 324"/>
+    <hyperlink ref="G16" tooltip="CV%: 6.4; ERROR:      207; LI90%:      2 912; LS90%:      3 592"/>
+    <hyperlink ref="G17" tooltip="CV%: 8.1; ERROR:      141; LI90%:      1 514; LS90%:      1 978"/>
+    <hyperlink ref="G18" tooltip="CV%: 6.3; ERROR:      189; LI90%:      2 711; LS90%:      3 333"/>
+    <hyperlink ref="G19" tooltip="CV%: 4.4; ERROR:      91; LI90%:      1 892; LS90%:      2 190"/>
+    <hyperlink ref="G20" tooltip="CV%: 9.1; ERROR:      204; LI90%:      1 902; LS90%:      2 573"/>
+    <hyperlink ref="G21" tooltip="CV%: 11.0; ERROR:      401; LI90%:      2 988; LS90%:      4 307"/>
+    <hyperlink ref="G22" tooltip="CV%: 7.3; ERROR:      166; LI90%:      2 012; LS90%:      2 558"/>
+    <hyperlink ref="G23" tooltip="CV%: 8.3; ERROR:      192; LI90%:      1 982; LS90%:      2 612"/>
+    <hyperlink ref="G24" tooltip="CV%: 8.6; ERROR:      214; LI90%:      2 132; LS90%:      2 836"/>
+    <hyperlink ref="G25" tooltip="CV%: 7.3; ERROR:      130; LI90%:      1 559; LS90%:      1 987"/>
+    <hyperlink ref="G26" tooltip="CV%: 10.2; ERROR:      281; LI90%:      2 301; LS90%:      3 225"/>
+    <hyperlink ref="G27" tooltip="CV%: 8.2; ERROR:      195; LI90%:      2 069; LS90%:      2 712"/>
+    <hyperlink ref="G28" tooltip="CV%: 12.0; ERROR:      342; LI90%:      2 287; LS90%:      3 412"/>
+    <hyperlink ref="G29" tooltip="CV%: 7.0; ERROR:      195; LI90%:      2 456; LS90%:      3 098"/>
+    <hyperlink ref="G30" tooltip="CV%: 14.9; ERROR:      471; LI90%:      2 389; LS90%:      3 939"/>
+    <hyperlink ref="G31" tooltip="CV%: 7.0; ERROR:      111; LI90%:      1 406; LS90%:      1 769"/>
+    <hyperlink ref="G32" tooltip="CV%: 12.8; ERROR:      445; LI90%:      2 757; LS90%:      4 221"/>
+    <hyperlink ref="G33" tooltip="CV%: 6.2; ERROR:      179; LI90%:      2 582; LS90%:      3 172"/>
+    <hyperlink ref="G34" tooltip="CV%: 10.8; ERROR:      281; LI90%:      2 147; LS90%:      3 071"/>
+    <hyperlink ref="G35" tooltip="CV%: 11.0; ERROR:      356; LI90%:      2 658; LS90%:      3 829"/>
+    <hyperlink ref="G36" tooltip="CV%: 7.7; ERROR:      244; LI90%:      2 772; LS90%:      3 574"/>
+    <hyperlink ref="G37" tooltip="CV%: 4.9; ERROR:      125; LI90%:      2 327; LS90%:      2 739"/>
+    <hyperlink ref="G38" tooltip="CV%: 5.5; ERROR:      147; LI90%:      2 409; LS90%:      2 893"/>
+    <hyperlink ref="G39" tooltip="CV%: 6.8; ERROR:      130; LI90%:      1 692; LS90%:      2 120"/>
+    <hyperlink ref="G40" tooltip="CV%: 7.5; ERROR:      181; LI90%:      2 121; LS90%:      2 716"/>
+    <hyperlink ref="G41" tooltip="CV%: 7.6; ERROR:      177; LI90%:      2 044; LS90%:      2 627"/>
+    <hyperlink ref="G42" tooltip="CV%: 13.3; ERROR:      395; LI90%:      2 311; LS90%:      3 611"/>
+    <hyperlink ref="I10" tooltip="CV%: 1.1; ERROR:     250 598; LI90%:     21 937 313; LS90%:     22 761 707"/>
+    <hyperlink ref="I11" tooltip="CV%: 4.8; ERROR:     15 023; LI90%:      286 544; LS90%:      335 964"/>
+    <hyperlink ref="I12" tooltip="CV%: 3.9; ERROR:     31 885; LI90%:      758 944; LS90%:      863 836"/>
+    <hyperlink ref="I13" tooltip="CV%: 6.8; ERROR:     7 242; LI90%:      95 302; LS90%:      119 128"/>
+    <hyperlink ref="I14" tooltip="CV%: 5.5; ERROR:     6 384; LI90%:      104 760; LS90%:      125 762"/>
+    <hyperlink ref="I15" tooltip="CV%: 5.6; ERROR:     21 577; LI90%:      353 253; LS90%:      424 233"/>
+    <hyperlink ref="I16" tooltip="CV%: 5.0; ERROR:     5 603; LI90%:      103 247; LS90%:      121 679"/>
+    <hyperlink ref="I17" tooltip="CV%: 5.8; ERROR:     25 484; LI90%:      399 905; LS90%:      483 739"/>
+    <hyperlink ref="I18" tooltip="CV%: 5.1; ERROR:     29 020; LI90%:      518 320; LS90%:      613 786"/>
+    <hyperlink ref="I19" tooltip="CV%: 2.8; ERROR:     86 271; LI90%:     2 982 660; LS90%:     3 266 468"/>
+    <hyperlink ref="I20" tooltip="CV%: 5.0; ERROR:     10 844; LI90%:      197 629; LS90%:      233 303"/>
+    <hyperlink ref="I21" tooltip="CV%: 5.2; ERROR:     59 324; LI90%:     1 048 077; LS90%:     1 243 237"/>
+    <hyperlink ref="I22" tooltip="CV%: 5.4; ERROR:     28 028; LI90%:      468 599; LS90%:      560 801"/>
+    <hyperlink ref="I23" tooltip="CV%: 6.2; ERROR:     21 551; LI90%:      312 354; LS90%:      383 252"/>
+    <hyperlink ref="I24" tooltip="CV%: 4.3; ERROR:     70 234; LI90%:     1 527 624; LS90%:     1 758 674"/>
+    <hyperlink ref="I25" tooltip="CV%: 3.4; ERROR:     167 571; LI90%:     4 670 266; LS90%:     5 221 524"/>
+    <hyperlink ref="I26" tooltip="CV%: 5.1; ERROR:     27 088; LI90%:      484 138; LS90%:      573 248"/>
+    <hyperlink ref="I27" tooltip="CV%: 4.5; ERROR:     18 521; LI90%:      384 116; LS90%:      445 044"/>
+    <hyperlink ref="I28" tooltip="CV%: 8.1; ERROR:     10 733; LI90%:      114 970; LS90%:      150 278"/>
+    <hyperlink ref="I29" tooltip="CV%: 4.3; ERROR:     41 867; LI90%:      908 003; LS90%:     1 045 733"/>
+    <hyperlink ref="I30" tooltip="CV%: 6.4; ERROR:     28 757; LI90%:      399 725; LS90%:      494 329"/>
+    <hyperlink ref="I31" tooltip="CV%: 7.5; ERROR:     88 713; LI90%:     1 043 092; LS90%:     1 334 932"/>
+    <hyperlink ref="I32" tooltip="CV%: 5.1; ERROR:     22 136; LI90%:      401 255; LS90%:      474 077"/>
+    <hyperlink ref="I33" tooltip="CV%: 4.9; ERROR:     16 910; LI90%:      316 091; LS90%:      371 721"/>
+    <hyperlink ref="I34" tooltip="CV%: 5.9; ERROR:     24 174; LI90%:      367 882; LS90%:      447 408"/>
+    <hyperlink ref="I35" tooltip="CV%: 4.2; ERROR:     20 062; LI90%:      442 881; LS90%:      508 877"/>
+    <hyperlink ref="I36" tooltip="CV%: 5.4; ERROR:     25 820; LI90%:      437 563; LS90%:      522 505"/>
+    <hyperlink ref="I37" tooltip="CV%: 4.7; ERROR:     19 798; LI90%:      392 697; LS90%:      457 827"/>
+    <hyperlink ref="I38" tooltip="CV%: 4.4; ERROR:     18 958; LI90%:      401 015; LS90%:      463 383"/>
+    <hyperlink ref="I39" tooltip="CV%: 5.2; ERROR:     11 835; LI90%:      207 884; LS90%:      246 818"/>
+    <hyperlink ref="I40" tooltip="CV%: 5.7; ERROR:     48 074; LI90%:      767 254; LS90%:      925 402"/>
+    <hyperlink ref="I41" tooltip="CV%: 5.4; ERROR:     13 063; LI90%:      219 302; LS90%:      262 276"/>
+    <hyperlink ref="I42" tooltip="CV%: 5.7; ERROR:     11 357; LI90%:      179 367; LS90%:      216 729"/>
+    <hyperlink ref="K10" tooltip="CV%: 5.7; ERROR:   10 060 040 507; LI90%:    160 824 709 677; LS90%:    193 919 297 907"/>
+    <hyperlink ref="K11" tooltip="CV%: 32.6; ERROR:   1 551 537 188; LI90%:    2 212 183 480; LS90%:    7 316 286 620"/>
+    <hyperlink ref="K12" tooltip="CV%: 15.6; ERROR:    902 760 355; LI90%:    4 294 384 587; LS90%:    7 264 201 875"/>
+    <hyperlink ref="K13" tooltip="CV%: 14.1; ERROR:    81 186 884; LI90%:     441 285 809; LS90%:     708 366 891"/>
+    <hyperlink ref="K14" tooltip="CV%: 14.8; ERROR:    86 828 589; LI90%:     442 895 658; LS90%:     728 536 298"/>
+    <hyperlink ref="K15" tooltip="CV%: 40.6; ERROR:   1 276 885 376; LI90%:    1 042 243 743; LS90%:    5 242 822 827"/>
+    <hyperlink ref="K16" tooltip="CV%: 16.8; ERROR:    120 846 864; LI90%:     518 510 323; LS90%:     916 061 129"/>
+    <hyperlink ref="K17" tooltip="CV%: 33.3; ERROR:   1 049 437 464; LI90%:    1 426 131 376; LS90%:    4 878 473 414"/>
+    <hyperlink ref="K18" tooltip="CV%: 13.7; ERROR:    472 761 460; LI90%:    2 661 491 385; LS90%:    4 216 738 191"/>
+    <hyperlink ref="K19" tooltip="CV%: 8.5; ERROR:   1 716 195 687; LI90%:    17 447 282 992; LS90%:    23 093 064 392"/>
+    <hyperlink ref="K20" tooltip="CV%: 21.0; ERROR:    247 297 383; LI90%:     772 583 867; LS90%:    1 586 119 863"/>
+    <hyperlink ref="K21" tooltip="CV%: 22.8; ERROR:   2 881 939 468; LI90%:    7 914 334 984; LS90%:    17 395 072 156"/>
+    <hyperlink ref="K22" tooltip="CV%: 13.6; ERROR:    256 064 308; LI90%:    1 465 797 725; LS90%:    2 308 174 337"/>
+    <hyperlink ref="K23" tooltip="CV%: 23.0; ERROR:    545 573 074; LI90%:    1 469 753 450; LS90%:    3 264 529 150"/>
+    <hyperlink ref="K24" tooltip="CV%: 14.1; ERROR:   2 663 726 816; LI90%:    14 554 335 370; LS90%:    23 317 216 800"/>
+    <hyperlink ref="K25" tooltip="CV%: 19.3; ERROR:   8 052 980 772; LI90%:    28 552 373 246; LS90%:    55 044 322 508"/>
+    <hyperlink ref="K26" tooltip="CV%: 26.2; ERROR:   1 559 756 213; LI90%:    3 381 632 182; LS90%:    8 512 773 510"/>
+    <hyperlink ref="K27" tooltip="CV%: 18.7; ERROR:    614 263 885; LI90%:    2 268 309 248; LS90%:    4 289 057 604"/>
+    <hyperlink ref="K28" tooltip="CV%: 42.2; ERROR:    437 169 946; LI90%:     317 541 221; LS90%:    1 755 702 363"/>
+    <hyperlink ref="K29" tooltip="CV%: 9.0; ERROR:    402 758 107; LI90%:    3 827 174 516; LS90%:    5 152 130 784"/>
+    <hyperlink ref="K30" tooltip="CV%: 16.5; ERROR:    429 813 803; LI90%:    1 900 300 928; LS90%:    3 314 262 512"/>
+    <hyperlink ref="K31" tooltip="CV%: 10.1; ERROR:    844 173 348; LI90%:    6 974 258 832; LS90%:    9 751 342 020"/>
+    <hyperlink ref="K32" tooltip="CV%: 34.0; ERROR:   1 341 432 957; LI90%:    1 744 673 813; LS90%:    6 157 595 543"/>
+    <hyperlink ref="K33" tooltip="CV%: 15.0; ERROR:    363 297 667; LI90%:    1 819 281 566; LS90%:    3 014 424 536"/>
+    <hyperlink ref="K34" tooltip="CV%: 17.5; ERROR:    353 524 561; LI90%:    1 444 046 898; LS90%:    2 607 039 210"/>
+    <hyperlink ref="K35" tooltip="CV%: 14.8; ERROR:    360 797 958; LI90%:    1 850 985 141; LS90%:    3 037 904 803"/>
+    <hyperlink ref="K36" tooltip="CV%: 15.6; ERROR:    349 923 943; LI90%:    1 661 679 687; LS90%:    2 812 827 021"/>
+    <hyperlink ref="K37" tooltip="CV%: 16.4; ERROR:    453 652 849; LI90%:    2 026 269 065; LS90%:    3 518 654 133"/>
+    <hyperlink ref="K38" tooltip="CV%: 29.8; ERROR:    806 319 134; LI90%:    1 380 191 057; LS90%:    4 032 744 963"/>
+    <hyperlink ref="K39" tooltip="CV%: 21.1; ERROR:    398 888 623; LI90%:    1 233 904 312; LS90%:    2 546 131 108"/>
+    <hyperlink ref="K40" tooltip="CV%: 22.6; ERROR:   1 658 235 977; LI90%:    4 622 125 844; LS90%:    10 077 236 768"/>
+    <hyperlink ref="K41" tooltip="CV%: 14.2; ERROR:    155 283 896; LI90%:     836 085 231; LS90%:    1 346 923 789"/>
+    <hyperlink ref="K42" tooltip="CV%: 20.9; ERROR:    209 982 833; LI90%:     660 440 241; LS90%:    1 351 222 289"/>
+    <hyperlink ref="L10" tooltip="CV%: 5.5; ERROR:      435; LI90%:      7 221; LS90%:      8 652"/>
+    <hyperlink ref="L11" tooltip="CV%: 33.0; ERROR:     5 055; LI90%:      6 992; LS90%:      23 621"/>
+    <hyperlink ref="L12" tooltip="CV%: 15.1; ERROR:     1 075; LI90%:      5 354; LS90%:      8 891"/>
+    <hyperlink ref="L13" tooltip="CV%: 13.5; ERROR:      723; LI90%:      4 172; LS90%:      6 551"/>
+    <hyperlink ref="L14" tooltip="CV%: 13.9; ERROR:      704; LI90%:      3 923; LS90%:      6 240"/>
+    <hyperlink ref="L15" tooltip="CV%: 40.4; ERROR:     3 265; LI90%:      2 713; LS90%:      13 454"/>
+    <hyperlink ref="L16" tooltip="CV%: 16.8; ERROR:     1 072; LI90%:      4 614; LS90%:      8 142"/>
+    <hyperlink ref="L17" tooltip="CV%: 33.2; ERROR:     2 368; LI90%:      3 240; LS90%:      11 029"/>
+    <hyperlink ref="L18" tooltip="CV%: 14.0; ERROR:      850; LI90%:      4 677; LS90%:      7 474"/>
+    <hyperlink ref="L19" tooltip="CV%: 8.4; ERROR:      546; LI90%:      5 589; LS90%:      7 385"/>
+    <hyperlink ref="L20" tooltip="CV%: 20.1; ERROR:     1 099; LI90%:      3 665; LS90%:      7 282"/>
+    <hyperlink ref="L21" tooltip="CV%: 21.9; ERROR:     2 417; LI90%:      7 070; LS90%:      15 021"/>
+    <hyperlink ref="L22" tooltip="CV%: 12.9; ERROR:      475; LI90%:      2 886; LS90%:      4 447"/>
+    <hyperlink ref="L23" tooltip="CV%: 22.8; ERROR:     1 550; LI90%:      4 257; LS90%:      9 355"/>
+    <hyperlink ref="L24" tooltip="CV%: 13.5; ERROR:     1 556; LI90%:      8 964; LS90%:      14 084"/>
+    <hyperlink ref="L25" tooltip="CV%: 18.4; ERROR:     1 554; LI90%:      5 895; LS90%:      11 007"/>
+    <hyperlink ref="L26" tooltip="CV%: 25.8; ERROR:     2 899; LI90%:      6 480; LS90%:      16 018"/>
+    <hyperlink ref="L27" tooltip="CV%: 18.3; ERROR:     1 448; LI90%:      5 526; LS90%:      10 291"/>
+    <hyperlink ref="L28" tooltip="CV%: 39.9; ERROR:     3 121; LI90%:      2 683; LS90%:      12 950"/>
+    <hyperlink ref="L29" tooltip="CV%: 8.3; ERROR:      381; LI90%:      3 970; LS90%:      5 222"/>
+    <hyperlink ref="L30" tooltip="CV%: 16.5; ERROR:      962; LI90%:      4 250; LS90%:      7 415"/>
+    <hyperlink ref="L31" tooltip="CV%: 10.9; ERROR:      764; LI90%:      5 777; LS90%:      8 290"/>
+    <hyperlink ref="L32" tooltip="CV%: 33.5; ERROR:     3 021; LI90%:      4 059; LS90%:      13 996"/>
+    <hyperlink ref="L33" tooltip="CV%: 14.4; ERROR:     1 014; LI90%:      5 359; LS90%:      8 696"/>
+    <hyperlink ref="L34" tooltip="CV%: 15.4; ERROR:      764; LI90%:      3 713; LS90%:      6 225"/>
+    <hyperlink ref="L35" tooltip="CV%: 14.2; ERROR:      727; LI90%:      3 940; LS90%:      6 333"/>
+    <hyperlink ref="L36" tooltip="CV%: 14.6; ERROR:      682; LI90%:      3 539; LS90%:      5 782"/>
+    <hyperlink ref="L37" tooltip="CV%: 15.5; ERROR:     1 012; LI90%:      4 854; LS90%:      8 185"/>
+    <hyperlink ref="L38" tooltip="CV%: 29.6; ERROR:     1 855; LI90%:      3 210; LS90%:      9 314"/>
+    <hyperlink ref="L39" tooltip="CV%: 21.0; ERROR:     1 749; LI90%:      5 437; LS90%:      11 190"/>
+    <hyperlink ref="L40" tooltip="CV%: 22.3; ERROR:     1 935; LI90%:      5 502; LS90%:      11 866"/>
+    <hyperlink ref="L41" tooltip="CV%: 13.8; ERROR:      624; LI90%:      3 506; LS90%:      5 560"/>
+    <hyperlink ref="L42" tooltip="CV%: 20.1; ERROR:     1 021; LI90%:      3 399; LS90%:      6 759"/>
+    <hyperlink ref="N10" tooltip="CV%: 9.8; ERROR:    967 962 355; LI90%:    8 314 520 055; LS90%:    11 498 832 835"/>
+    <hyperlink ref="N11" tooltip="CV%: 47.2; ERROR:    92 851 658; LI90%:     44 084 063; LS90%:     349 538 837"/>
+    <hyperlink ref="N12" tooltip="CV%: 57.5; ERROR:    130 504 574; LI90%:     12 169 971; LS90%:     441 491 817"/>
+    <hyperlink ref="N13" tooltip="CV%: 38.4; ERROR:    3 676 982; LI90%:     3 536 903; LS90%:     15 633 097"/>
+    <hyperlink ref="N14" tooltip="CV%: 70.6; ERROR:    84 352 926; LI90%: 0*; LS90%:     258 275 766"/>
+    <hyperlink ref="N15" tooltip="CV%: 65.0; ERROR:    178 446 341; LI90%: 0*; LS90%:     568 099 261"/>
+    <hyperlink ref="N16" tooltip="CV%: 37.6; ERROR:    12 671 946; LI90%:     12 888 204; LS90%:     54 575 196"/>
+    <hyperlink ref="N17" tooltip="CV%: 38.7; ERROR:    101 170 643; LI90%:     94 957 901; LS90%:     427 779 699"/>
+    <hyperlink ref="N18" tooltip="CV%: 37.1; ERROR:    87 277 774; LI90%:     91 876 608; LS90%:     378 994 936"/>
+    <hyperlink ref="N19" tooltip="CV%: 27.3; ERROR:    418 968 101; LI90%:     846 917 559; LS90%:    2 225 199 961"/>
+    <hyperlink ref="N20" tooltip="CV%: 55.9; ERROR:    64 335 094; LI90%:     9 288 387; LS90%:     220 932 013"/>
+    <hyperlink ref="N21" tooltip="CV%: 34.5; ERROR:    99 959 486; LI90%:     124 999 696; LS90%:     453 837 144"/>
+    <hyperlink ref="N22" tooltip="CV%: 30.7; ERROR:    39 626 666; LI90%:     64 074 274; LS90%:     194 434 406"/>
+    <hyperlink ref="N23" tooltip="CV%: 47.4; ERROR:    120 453 591; LI90%:     55 786 924; LS90%:     452 043 976"/>
+    <hyperlink ref="N24" tooltip="CV%: 32.9; ERROR:    326 742 130; LI90%:     454 371 372; LS90%:    1 529 257 328"/>
+    <hyperlink ref="N25" tooltip="CV%: 29.9; ERROR:    286 305 550; LI90%:     487 874 427; LS90%:    1 429 735 873"/>
+    <hyperlink ref="N26" tooltip="CV%: 68.7; ERROR:    418 199 537; LI90%: 0*; LS90%:    1 296 957 226"/>
+    <hyperlink ref="N27" tooltip="CV%: 67.9; ERROR:    249 267 178; LI90%: 0*; LS90%:     777 045 922"/>
+    <hyperlink ref="N28" tooltip="CV%: 43.5; ERROR:    5 650 877; LI90%:     3 710 235; LS90%:     22 299 965"/>
+    <hyperlink ref="N29" tooltip="CV%: 47.6; ERROR:    211 586 063; LI90%:     96 805 397; LS90%:     792 861 603"/>
+    <hyperlink ref="N30" tooltip="CV%: 46.0; ERROR:    206 068 068; LI90%:     108 676 750; LS90%:     786 580 370"/>
+    <hyperlink ref="N31" tooltip="CV%: 22.0; ERROR:    76 679 798; LI90%:     221 935 656; LS90%:     474 189 744"/>
+    <hyperlink ref="N32" tooltip="CV%: 27.7; ERROR:    52 958 100; LI90%:     103 744 626; LS90%:     277 961 274"/>
+    <hyperlink ref="N33" tooltip="CV%: 37.5; ERROR:    20 400 372; LI90%:     20 902 274; LS90%:     88 013 526"/>
+    <hyperlink ref="N34" tooltip="CV%: 50.0; ERROR:    24 633 530; LI90%:     8 778 598; LS90%:     89 815 702"/>
+    <hyperlink ref="N35" tooltip="CV%: 36.8; ERROR:    42 096 487; LI90%:     45 186 540; LS90%:     183 671 660"/>
+    <hyperlink ref="N36" tooltip="CV%: 41.6; ERROR:    172 635 351; LI90%:     131 373 717; LS90%:     699 293 483"/>
+    <hyperlink ref="N37" tooltip="CV%: 28.3; ERROR:    45 856 292; LI90%:     86 694 131; LS90%:     237 547 907"/>
+    <hyperlink ref="N38" tooltip="CV%: 41.9; ERROR:    72 330 597; LI90%:     53 631 404; LS90%:     291 577 896"/>
+    <hyperlink ref="N39" tooltip="CV%: 31.6; ERROR:    42 330 704; LI90%:     64 263 018; LS90%:     203 518 642"/>
+    <hyperlink ref="N40" tooltip="CV%: 45.9; ERROR:    264 873 028; LI90%:     141 235 839; LS90%:    1 012 590 561"/>
+    <hyperlink ref="N41" tooltip="CV%: 37.4; ERROR:    23 440 729; LI90%:     24 053 132; LS90%:     101 166 268"/>
+    <hyperlink ref="N42" tooltip="CV%: 34.1; ERROR:    18 347 728; LI90%:     23 601 073; LS90%:     83 959 727"/>
+    <hyperlink ref="O10" tooltip="CV%: 9.7; ERROR:      43; LI90%:       372; LS90%:       514"/>
+    <hyperlink ref="O11" tooltip="CV%: 47.1; ERROR:      298; LI90%:       142; LS90%:      1 122"/>
+    <hyperlink ref="O12" tooltip="CV%: 57.5; ERROR:      161; LI90%:       15; LS90%:       544"/>
+    <hyperlink ref="O13" tooltip="CV%: 38.5; ERROR:      34; LI90%:       33; LS90%:       146"/>
+    <hyperlink ref="O14" tooltip="CV%: 69.9; ERROR:      725; LI90%: 0*; LS90%:      2 230"/>
+    <hyperlink ref="O15" tooltip="CV%: 64.7; ERROR:      457; LI90%: 0*; LS90%:      1 457"/>
+    <hyperlink ref="O16" tooltip="CV%: 37.6; ERROR:      113; LI90%:       114; LS90%:       485"/>
+    <hyperlink ref="O17" tooltip="CV%: 38.5; ERROR:      228; LI90%:       217; LS90%:       966"/>
+    <hyperlink ref="O18" tooltip="CV%: 37.4; ERROR:      155; LI90%:       160; LS90%:       671"/>
+    <hyperlink ref="O19" tooltip="CV%: 27.3; ERROR:      134; LI90%:       271; LS90%:       712"/>
+    <hyperlink ref="O20" tooltip="CV%: 55.1; ERROR:      294; LI90%:       50; LS90%:      1 019"/>
+    <hyperlink ref="O21" tooltip="CV%: 33.3; ERROR:      84; LI90%:       114; LS90%:       391"/>
+    <hyperlink ref="O22" tooltip="CV%: 30.1; ERROR:      76; LI90%:       127; LS90%:       376"/>
+    <hyperlink ref="O23" tooltip="CV%: 47.3; ERROR:      345; LI90%:       162; LS90%:      1 298"/>
+    <hyperlink ref="O24" tooltip="CV%: 32.9; ERROR:      199; LI90%:       277; LS90%:       930"/>
+    <hyperlink ref="O25" tooltip="CV%: 29.6; ERROR:      57; LI90%:       99; LS90%:       288"/>
+    <hyperlink ref="O26" tooltip="CV%: 68.7; ERROR:      792; LI90%: 0*; LS90%:      2 455"/>
+    <hyperlink ref="O27" tooltip="CV%: 67.4; ERROR:      597; LI90%: 0*; LS90%:      1 867"/>
+    <hyperlink ref="O28" tooltip="CV%: 41.8; ERROR:      41; LI90%:       31; LS90%:       166"/>
+    <hyperlink ref="O29" tooltip="CV%: 47.4; ERROR:      216; LI90%:       100; LS90%:       811"/>
+    <hyperlink ref="O30" tooltip="CV%: 45.7; ERROR:      458; LI90%:       248; LS90%:      1 754"/>
+    <hyperlink ref="O31" tooltip="CV%: 23.1; ERROR:      68; LI90%:       181; LS90%:       404"/>
+    <hyperlink ref="O32" tooltip="CV%: 28.0; ERROR:      122; LI90%:       235; LS90%:       637"/>
+    <hyperlink ref="O33" tooltip="CV%: 37.3; ERROR:      59; LI90%:       61; LS90%:       256"/>
+    <hyperlink ref="O34" tooltip="CV%: 49.9; ERROR:      60; LI90%:       22; LS90%:       220"/>
+    <hyperlink ref="O35" tooltip="CV%: 36.8; ERROR:      89; LI90%:       95; LS90%:       386"/>
+    <hyperlink ref="O36" tooltip="CV%: 41.0; ERROR:      355; LI90%:       282; LS90%:      1 448"/>
+    <hyperlink ref="O37" tooltip="CV%: 27.3; ERROR:      104; LI90%:       210; LS90%:       552"/>
+    <hyperlink ref="O38" tooltip="CV%: 41.8; ERROR:      167; LI90%:       125; LS90%:       674"/>
+    <hyperlink ref="O39" tooltip="CV%: 31.3; ERROR:      184; LI90%:       286; LS90%:       892"/>
+    <hyperlink ref="O40" tooltip="CV%: 46.1; ERROR:      315; LI90%:       164; LS90%:      1 199"/>
+    <hyperlink ref="O41" tooltip="CV%: 37.7; ERROR:      98; LI90%:       99; LS90%:       421"/>
+    <hyperlink ref="O42" tooltip="CV%: 33.7; ERROR:      91; LI90%:       121; LS90%:       422"/>
+    <hyperlink ref="Q10" tooltip="CV%: 0.9; ERROR:     370 355; LI90%:     40 093 119; LS90%:     41 311 479"/>
+    <hyperlink ref="Q11" tooltip="CV%: 3.9; ERROR:     19 487; LI90%:      461 833; LS90%:      525 939"/>
+    <hyperlink ref="Q12" tooltip="CV%: 3.2; ERROR:     41 282; LI90%:     1 226 535; LS90%:     1 362 341"/>
+    <hyperlink ref="Q13" tooltip="CV%: 5.3; ERROR:     12 553; LI90%:      214 345; LS90%:      255 641"/>
+    <hyperlink ref="Q14" tooltip="CV%: 4.2; ERROR:     12 295; LI90%:      273 996; LS90%:      314 442"/>
+    <hyperlink ref="Q15" tooltip="CV%: 3.9; ERROR:     34 759; LI90%:      836 106; LS90%:      950 452"/>
+    <hyperlink ref="Q16" tooltip="CV%: 3.2; ERROR:     8 032; LI90%:      238 190; LS90%:      264 614"/>
+    <hyperlink ref="Q17" tooltip="CV%: 3.9; ERROR:     44 909; LI90%:     1 071 006; LS90%:     1 218 742"/>
+    <hyperlink ref="Q18" tooltip="CV%: 3.3; ERROR:     35 172; LI90%:     1 023 496; LS90%:     1 139 200"/>
+    <hyperlink ref="Q19" tooltip="CV%: 2.1; ERROR:     93 308; LI90%:     4 243 538; LS90%:     4 550 494"/>
+    <hyperlink ref="Q20" tooltip="CV%: 3.2; ERROR:     14 961; LI90%:      440 979; LS90%:      490 197"/>
+    <hyperlink ref="Q21" tooltip="CV%: 3.9; ERROR:     80 746; LI90%:     1 955 929; LS90%:     2 221 559"/>
+    <hyperlink ref="Q22" tooltip="CV%: 4.0; ERROR:     37 796; LI90%:      876 971; LS90%:     1 001 309"/>
+    <hyperlink ref="Q23" tooltip="CV%: 4.9; ERROR:     43 858; LI90%:      815 381; LS90%:      959 661"/>
+    <hyperlink ref="Q24" tooltip="CV%: 3.7; ERROR:     106 159; LI90%:     2 676 706; LS90%:     3 025 938"/>
+    <hyperlink ref="Q25" tooltip="CV%: 3.2; ERROR:     252 530; LI90%:     7 427 624; LS90%:     8 258 374"/>
+    <hyperlink ref="Q26" tooltip="CV%: 3.4; ERROR:     39 895; LI90%:     1 099 523; LS90%:     1 230 765"/>
+    <hyperlink ref="Q27" tooltip="CV%: 3.0; ERROR:     21 545; LI90%:      693 993; LS90%:      764 869"/>
+    <hyperlink ref="Q28" tooltip="CV%: 5.0; ERROR:     15 057; LI90%:      275 401; LS90%:      324 933"/>
+    <hyperlink ref="Q29" tooltip="CV%: 3.0; ERROR:     56 785; LI90%:     1 786 250; LS90%:     1 973 054"/>
+    <hyperlink ref="Q30" tooltip="CV%: 4.6; ERROR:     41 705; LI90%:      846 445; LS90%:      983 643"/>
+    <hyperlink ref="Q31" tooltip="CV%: 6.4; ERROR:     135 389; LI90%:     1 902 140; LS90%:     2 347 530"/>
+    <hyperlink ref="Q32" tooltip="CV%: 4.2; ERROR:     33 047; LI90%:      741 162; LS90%:      849 876"/>
+    <hyperlink ref="Q33" tooltip="CV%: 4.5; ERROR:     28 419; LI90%:      589 350; LS90%:      682 840"/>
+    <hyperlink ref="Q34" tooltip="CV%: 7.0; ERROR:     56 864; LI90%:      722 514; LS90%:      909 582"/>
+    <hyperlink ref="Q35" tooltip="CV%: 3.4; ERROR:     25 917; LI90%:      723 841; LS90%:      809 101"/>
+    <hyperlink ref="Q36" tooltip="CV%: 3.6; ERROR:     35 226; LI90%:      929 344; LS90%:     1 045 228"/>
+    <hyperlink ref="Q37" tooltip="CV%: 2.9; ERROR:     25 381; LI90%:      847 156; LS90%:      930 654"/>
+    <hyperlink ref="Q38" tooltip="CV%: 2.9; ERROR:     29 505; LI90%:      952 300; LS90%:     1 049 362"/>
+    <hyperlink ref="Q39" tooltip="CV%: 3.5; ERROR:     17 551; LI90%:      470 214; LS90%:      527 950"/>
+    <hyperlink ref="Q40" tooltip="CV%: 3.8; ERROR:     75 224; LI90%:     1 878 811; LS90%:     2 126 277"/>
+    <hyperlink ref="Q41" tooltip="CV%: 3.4; ERROR:     19 838; LI90%:      559 100; LS90%:      624 360"/>
+    <hyperlink ref="Q42" tooltip="CV%: 4.6; ERROR:     18 577; LI90%:      377 080; LS90%:      438 192"/>
+    <hyperlink ref="S10" tooltip="CV%: 3.8; ERROR:   10 728 172 409; LI90%:    264 474 861 982; LS90%:    299 767 408 578"/>
+    <hyperlink ref="S11" tooltip="CV%: 25.4; ERROR:   1 586 015 266; LI90%:    3 642 344 488; LS90%:    8 859 870 412"/>
+    <hyperlink ref="S12" tooltip="CV%: 11.3; ERROR:   1 082 526 515; LI90%:    7 783 911 807; LS90%:    11 345 107 137"/>
+    <hyperlink ref="S13" tooltip="CV%: 7.6; ERROR:    102 842 670; LI90%:    1 178 216 761; LS90%:    1 516 539 039"/>
+    <hyperlink ref="S14" tooltip="CV%: 10.6; ERROR:    141 178 132; LI90%:    1 094 394 040; LS90%:    1 558 828 766"/>
+    <hyperlink ref="S15" tooltip="CV%: 23.0; ERROR:   1 333 210 058; LI90%:    3 603 704 661; LS90%:    7 989 575 459"/>
+    <hyperlink ref="S16" tooltip="CV%: 9.1; ERROR:    143 266 655; LI90%:    1 340 218 739; LS90%:    1 811 524 093"/>
+    <hyperlink ref="S17" tooltip="CV%: 19.7; ERROR:   1 111 735 293; LI90%:    3 825 325 116; LS90%:    7 482 608 774"/>
+    <hyperlink ref="S18" tooltip="CV%: 8.6; ERROR:    552 824 688; LI90%:    5 500 562 056; LS90%:    7 319 193 444"/>
+    <hyperlink ref="S19" tooltip="CV%: 6.9; ERROR:   1 981 199 607; LI90%:    25 270 367 035; LS90%:    31 787 933 753"/>
+    <hyperlink ref="S20" tooltip="CV%: 12.8; ERROR:    300 870 426; LI90%:    1 851 339 134; LS90%:    2 841 114 756"/>
+    <hyperlink ref="S21" tooltip="CV%: 15.2; ERROR:   3 216 487 508; LI90%:    15 913 687 857; LS90%:    26 494 990 143"/>
+    <hyperlink ref="S22" tooltip="CV%: 8.7; ERROR:    330 615 804; LI90%:    3 251 014 776; LS90%:    4 338 643 986"/>
+    <hyperlink ref="S23" tooltip="CV%: 12.8; ERROR:    619 333 570; LI90%:    3 821 588 070; LS90%:    5 859 014 208"/>
+    <hyperlink ref="S24" tooltip="CV%: 11.2; ERROR:   2 976 062 426; LI90%:    21 672 304 104; LS90%:    31 462 678 256"/>
+    <hyperlink ref="S25" tooltip="CV%: 15.0; ERROR:   8 319 902 042; LI90%:    41 767 024 229; LS90%:    69 137 066 329"/>
+    <hyperlink ref="S26" tooltip="CV%: 17.3; ERROR:   1 684 971 785; LI90%:    6 982 680 409; LS90%:    12 525 744 313"/>
+    <hyperlink ref="S27" tooltip="CV%: 13.7; ERROR:    726 957 297; LI90%:    4 107 466 640; LS90%:    6 498 943 332"/>
+    <hyperlink ref="S28" tooltip="CV%: 24.6; ERROR:    457 839 889; LI90%:    1 108 150 185; LS90%:    2 614 309 389"/>
+    <hyperlink ref="S29" tooltip="CV%: 6.2; ERROR:    607 990 078; LI90%:    8 754 960 073; LS90%:    10 755 069 443"/>
+    <hyperlink ref="S30" tooltip="CV%: 11.5; ERROR:    690 268 540; LI90%:    4 850 812 402; LS90%:    7 121 593 824"/>
+    <hyperlink ref="S31" tooltip="CV%: 8.3; ERROR:   1 005 527 566; LI90%:    10 501 790 702; LS90%:    13 809 682 030"/>
+    <hyperlink ref="S32" tooltip="CV%: 21.2; ERROR:   1 459 734 827; LI90%:    4 496 666 501; LS90%:    9 298 766 749"/>
+    <hyperlink ref="S33" tooltip="CV%: 9.8; ERROR:    409 882 951; LI90%:    3 527 959 583; LS90%:    4 876 354 499"/>
+    <hyperlink ref="S34" tooltip="CV%: 12.8; ERROR:    539 475 874; LI90%:    3 322 071 197; LS90%:    5 096 788 891"/>
+    <hyperlink ref="S35" tooltip="CV%: 10.1; ERROR:    450 666 153; LI90%:    3 702 007 778; LS90%:    5 184 567 490"/>
+    <hyperlink ref="S36" tooltip="CV%: 9.1; ERROR:    509 119 709; LI90%:    4 784 764 782; LS90%:    6 459 619 582"/>
+    <hyperlink ref="S37" tooltip="CV%: 10.0; ERROR:    494 088 982; LI90%:    4 106 912 769; LS90%:    5 732 320 877"/>
+    <hyperlink ref="S38" tooltip="CV%: 15.6; ERROR:    832 439 388; LI90%:    3 969 986 576; LS90%:    6 708 468 468"/>
+    <hyperlink ref="S39" tooltip="CV%: 14.3; ERROR:    431 428 400; LI90%:    2 309 439 867; LS90%:    3 728 713 003"/>
+    <hyperlink ref="S40" tooltip="CV%: 14.4; ERROR:   1 854 436 260; LI90%:    9 862 008 896; LS90%:    15 962 561 312"/>
+    <hyperlink ref="S41" tooltip="CV%: 8.2; ERROR:    200 731 795; LI90%:    2 107 228 018; LS90%:    2 767 576 862"/>
+    <hyperlink ref="S42" tooltip="CV%: 12.8; ERROR:    265 889 090; LI90%:    1 636 178 511; LS90%:    2 510 875 779"/>
+    <hyperlink ref="U10" tooltip="CV%: 3.7; ERROR:      254; LI90%:      6 513; LS90%:      7 349"/>
+    <hyperlink ref="U11" tooltip="CV%: 25.7; ERROR:     3 247; LI90%:      7 316; LS90%:      17 998"/>
+    <hyperlink ref="U12" tooltip="CV%: 10.8; ERROR:      797; LI90%:      6 079; LS90%:      8 699"/>
+    <hyperlink ref="U13" tooltip="CV%: 7.0; ERROR:      402; LI90%:      5 072; LS90%:      6 395"/>
+    <hyperlink ref="U14" tooltip="CV%: 10.3; ERROR:      463; LI90%:      3 747; LS90%:      5 271"/>
+    <hyperlink ref="U15" tooltip="CV%: 22.9; ERROR:     1 485; LI90%:      4 046; LS90%:      8 932"/>
+    <hyperlink ref="U16" tooltip="CV%: 8.6; ERROR:      540; LI90%:      5 381; LS90%:      7 156"/>
+    <hyperlink ref="U17" tooltip="CV%: 19.5; ERROR:      963; LI90%:      3 354; LS90%:      6 523"/>
+    <hyperlink ref="U18" tooltip="CV%: 8.6; ERROR:      508; LI90%:      5 092; LS90%:      6 764"/>
+    <hyperlink ref="U19" tooltip="CV%: 6.8; ERROR:      443; LI90%:      5 759; LS90%:      7 217"/>
+    <hyperlink ref="U20" tooltip="CV%: 12.4; ERROR:      623; LI90%:      4 014; LS90%:      6 064"/>
+    <hyperlink ref="U21" tooltip="CV%: 14.2; ERROR:     1 439; LI90%:      7 784; LS90%:      12 519"/>
+    <hyperlink ref="U22" tooltip="CV%: 7.6; ERROR:      307; LI90%:      3 535; LS90%:      4 546"/>
+    <hyperlink ref="U23" tooltip="CV%: 12.5; ERROR:      681; LI90%:      4 333; LS90%:      6 574"/>
+    <hyperlink ref="U24" tooltip="CV%: 10.9; ERROR:     1 014; LI90%:      7 651; LS90%:      10 985"/>
+    <hyperlink ref="U25" tooltip="CV%: 14.4; ERROR:     1 017; LI90%:      5 397; LS90%:      8 743"/>
+    <hyperlink ref="U26" tooltip="CV%: 17.2; ERROR:     1 436; LI90%:      6 009; LS90%:      10 734"/>
+    <hyperlink ref="U27" tooltip="CV%: 13.2; ERROR:      961; LI90%:      5 689; LS90%:      8 851"/>
+    <hyperlink ref="U28" tooltip="CV%: 24.0; ERROR:     1 491; LI90%:      3 748; LS90%:      8 653"/>
+    <hyperlink ref="U29" tooltip="CV%: 5.7; ERROR:      296; LI90%:      4 703; LS90%:      5 677"/>
+    <hyperlink ref="U30" tooltip="CV%: 10.2; ERROR:      665; LI90%:      5 448; LS90%:      7 635"/>
+    <hyperlink ref="U31" tooltip="CV%: 7.9; ERROR:      453; LI90%:      4 975; LS90%:      6 466"/>
+    <hyperlink ref="U32" tooltip="CV%: 20.4; ERROR:     1 773; LI90%:      5 755; LS90%:      11 586"/>
+    <hyperlink ref="U33" tooltip="CV%: 9.3; ERROR:      614; LI90%:      5 597; LS90%:      7 616"/>
+    <hyperlink ref="U34" tooltip="CV%: 9.1; ERROR:      470; LI90%:      4 386; LS90%:      5 931"/>
+    <hyperlink ref="U35" tooltip="CV%: 9.4; ERROR:      543; LI90%:      4 904; LS90%:      6 690"/>
+    <hyperlink ref="U36" tooltip="CV%: 8.6; ERROR:      488; LI90%:      4 891; LS90%:      6 498"/>
+    <hyperlink ref="U37" tooltip="CV%: 9.6; ERROR:      532; LI90%:      4 659; LS90%:      6 410"/>
+    <hyperlink ref="U38" tooltip="CV%: 15.5; ERROR:      828; LI90%:      3 974; LS90%:      6 696"/>
+    <hyperlink ref="U39" tooltip="CV%: 14.0; ERROR:      849; LI90%:      4 652; LS90%:      7 446"/>
+    <hyperlink ref="U40" tooltip="CV%: 13.8; ERROR:      893; LI90%:      4 980; LS90%:      7 916"/>
+    <hyperlink ref="U41" tooltip="CV%: 7.7; ERROR:      318; LI90%:      3 596; LS90%:      4 642"/>
+    <hyperlink ref="U42" tooltip="CV%: 12.6; ERROR:      643; LI90%:      4 030; LS90%:      6 144"/>
+    <hyperlink ref="F42" tooltip="CV%: 14.8; ERROR:    150 367 298; LI90%:     766 583 285; LS90%:    1 261 247 675"/>
+    <hyperlink ref="F41" tooltip="CV%: 8.2; ERROR:    104 788 380; LI90%:    1 110 926 684; LS90%:    1 455 649 776"/>
+    <hyperlink ref="F40" tooltip="CV%: 8.9; ERROR:    444 269 511; LI90%:    4 254 932 281; LS90%:    5 716 448 915"/>
+    <hyperlink ref="F39" tooltip="CV%: 7.6; ERROR:    75 678 426; LI90%:     870 687 961; LS90%:    1 119 647 829"/>
+    <hyperlink ref="F38" tooltip="CV%: 6.2; ERROR:    151 854 289; LI90%:    2 210 376 785; LS90%:    2 709 932 939"/>
+    <hyperlink ref="F37" tooltip="CV%: 5.8; ERROR:    114 158 608; LI90%:    1 797 260 005; LS90%:    2 172 808 405"/>
+    <hyperlink ref="F36" tooltip="CV%: 8.3; ERROR:    247 109 627; LI90%:    2 563 146 061; LS90%:    3 376 064 395"/>
+    <hyperlink ref="F35" tooltip="CV%: 12.3; ERROR:    231 797 375; LI90%:    1 503 140 810; LS90%:    2 265 686 314"/>
+    <hyperlink ref="F34" tooltip="CV%: 14.3; ERROR:    304 223 060; LI90%:    1 634 187 437; LS90%:    2 634 992 243"/>
+    <hyperlink ref="F33" tooltip="CV%: 7.6; ERROR:    131 417 801; LI90%:    1 514 683 044; LS90%:    1 947 009 136"/>
+    <hyperlink ref="F32" tooltip="CV%: 13.7; ERROR:    378 741 810; LI90%:    2 132 754 157; LS90%:    3 378 703 837"/>
+    <hyperlink ref="F31" tooltip="CV%: 10.2; ERROR:    350 901 541; LI90%:    2 867 691 568; LS90%:    4 022 054 912"/>
+    <hyperlink ref="F30" tooltip="CV%: 16.1; ERROR:    472 552 206; LI90%:    2 154 013 623; LS90%:    3 708 572 043"/>
+    <hyperlink ref="F29" tooltip="CV%: 7.7; ERROR:    372 299 758; LI90%:    4 208 150 001; LS90%:    5 432 907 215"/>
+    <hyperlink ref="F28" tooltip="CV%: 13.1; ERROR:    105 933 609; LI90%:     637 357 615; LS90%:     985 848 175"/>
+    <hyperlink ref="F27" tooltip="CV%: 8.4; ERROR:    138 845 491; LI90%:    1 429 103 151; LS90%:    1 885 864 169"/>
+    <hyperlink ref="F26" tooltip="CV%: 10.9; ERROR:    347 283 574; LI90%:    2 626 698 669; LS90%:    3 769 159 961"/>
+    <hyperlink ref="F25" tooltip="CV%: 7.6; ERROR:    967 214 411; LI90%:    11 103 966 120; LS90%:    14 285 818 384"/>
+    <hyperlink ref="F24" tooltip="CV%: 9.5; ERROR:    628 936 385; LI90%:    5 605 392 450; LS90%:    7 674 409 040"/>
+    <hyperlink ref="F23" tooltip="CV%: 8.9; ERROR:    196 685 625; LI90%:    1 895 725 326; LS90%:    2 542 763 452"/>
+    <hyperlink ref="F22" tooltip="CV%: 9.1; ERROR:    161 138 773; LI90%:    1 513 539 315; LS90%:    2 043 638 705"/>
+    <hyperlink ref="F21" tooltip="CV%: 11.6; ERROR:    959 123 636; LI90%:    6 682 599 018; LS90%:    9 837 835 002"/>
+    <hyperlink ref="F20" tooltip="CV%: 9.9; ERROR:    103 785 443; LI90%:     881 053 018; LS90%:    1 222 476 742"/>
+    <hyperlink ref="F19" tooltip="CV%: 4.8; ERROR:    320 472 955; LI90%:    6 195 786 839; LS90%:    7 250 049 045"/>
+    <hyperlink ref="F18" tooltip="CV%: 6.9; ERROR:    188 666 808; LI90%:    2 424 997 906; LS90%:    3 045 656 474"/>
+    <hyperlink ref="F17" tooltip="CV%: 8.4; ERROR:    187 126 775; LI90%:    1 932 499 596; LS90%:    2 548 091 904"/>
+    <hyperlink ref="F16" tooltip="CV%: 7.5; ERROR:    62 164 354; LI90%:     722 602 726; LS90%:     927 105 254"/>
+    <hyperlink ref="F15" tooltip="CV%: 10.9; ERROR:    258 989 522; LI90%:    1 953 525 770; LS90%:    2 805 525 480"/>
+    <hyperlink ref="F14" tooltip="CV%: 7.3; ERROR:    45 165 201; LI90%:     547 077 731; LS90%:     695 658 019"/>
+    <hyperlink ref="F13" tooltip="CV%: 7.7; ERROR:    59 048 758; LI90%:     665 839 986; LS90%:     860 093 114"/>
+    <hyperlink ref="F12" tooltip="CV%: 12.9; ERROR:    459 623 867; LI90%:    2 802 371 362; LS90%:    4 314 399 332"/>
+    <hyperlink ref="F11" tooltip="CV%: 9.3; ERROR:    120 138 301; LI90%:    1 092 451 030; LS90%:    1 487 670 870"/>
+    <hyperlink ref="F10" tooltip="CV%: 2.1; ERROR:   2 019 621 361; LI90%:    91 520 473 522; LS90%:    98 164 436 564"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="150" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="34">
+        <v>500</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="151">
+        <v>42112</v>
+      </c>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="34">
+        <v>120</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="151">
+        <v>43615</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="34">
+        <v>87</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="151">
+        <v>47599</v>
+      </c>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="34">
+        <v>230</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="151">
+        <v>47367</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="34">
+        <v>52</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="151">
+        <v>43589</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="34">
+        <v>99</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="151">
+        <v>45120</v>
+      </c>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="34">
+        <v>101</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="151">
+        <v>45364</v>
+      </c>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="34">
+        <v>100</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="151">
+        <v>44949</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="34">
+        <v>999</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="151">
+        <v>43518</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="34">
+        <v>0</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="151">
+        <v>44971</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="34">
+        <v>-150</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="151">
+        <v>48809</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="34">
+        <v>-10</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="151">
+        <v>43556</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -900,12 +5644,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:7" ht="14.4" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +5659,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -926,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,7 +5690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,7 +5710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -984,7 +5728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1002,7 +5746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +5766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1040,7 +5784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>25</v>
@@ -1058,7 +5802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +5822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1096,7 +5840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1114,7 +5858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +5878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1158,19 +5902,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K16"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1181,7 +5930,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="3:11" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:11" ht="31.2">
       <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1194,7 +5943,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="5" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="15" thickBot="1">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="25"/>
@@ -1205,7 +5954,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="15" thickBot="1">
       <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1234,7 +5983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="C7" s="29" t="s">
         <v>53</v>
       </c>
@@ -1263,7 +6012,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11">
       <c r="C8" s="30" t="s">
         <v>54</v>
       </c>
@@ -1292,7 +6041,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
@@ -1321,7 +6070,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="C10" s="30" t="s">
         <v>56</v>
       </c>
@@ -1350,7 +6099,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="C11" s="31" t="s">
         <v>57</v>
       </c>
@@ -1379,7 +6128,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="C12" s="31" t="s">
         <v>58</v>
       </c>
@@ -1408,7 +6157,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11">
       <c r="C13" s="31" t="s">
         <v>59</v>
       </c>
@@ -1437,7 +6186,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11">
       <c r="C14" s="31" t="s">
         <v>60</v>
       </c>
@@ -1466,7 +6215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="15" thickBot="1">
       <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
@@ -1495,7 +6244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11">
       <c r="C16" s="3"/>
       <c r="D16" s="9">
         <v>139</v>
@@ -1532,17 +6281,17 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="3"/>
     <col min="3" max="3" width="16.5546875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10">
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="3:10" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="3:10" ht="31.2">
       <c r="C3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1551,10 +6300,10 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:10" ht="15" thickBot="1">
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" ht="15" thickBot="1">
       <c r="C6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +6329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10">
       <c r="C7" s="29" t="s">
         <v>53</v>
       </c>
@@ -1604,7 +6353,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:10">
       <c r="C8" s="30" t="s">
         <v>54</v>
       </c>
@@ -1628,7 +6377,7 @@
       </c>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10">
       <c r="C9" s="30" t="s">
         <v>55</v>
       </c>
@@ -1652,7 +6401,7 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10">
       <c r="C10" s="30" t="s">
         <v>56</v>
       </c>
@@ -1676,7 +6425,7 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10">
       <c r="C11" s="31" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +6449,7 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:10">
       <c r="C12" s="31" t="s">
         <v>58</v>
       </c>
@@ -1724,7 +6473,7 @@
       </c>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:10">
       <c r="C13" s="31" t="s">
         <v>59</v>
       </c>
@@ -1748,7 +6497,7 @@
       </c>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:10">
       <c r="C14" s="31" t="s">
         <v>60</v>
       </c>
@@ -1772,7 +6521,7 @@
       </c>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:10" ht="15" thickBot="1">
       <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
@@ -1809,18 +6558,18 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -1828,7 +6577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
         <v>6</v>
       </c>
@@ -1836,7 +6585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -1844,7 +6593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>12</v>
       </c>
@@ -1852,7 +6601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -1860,7 +6609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>18</v>
       </c>
@@ -1868,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -1876,7 +6625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="3">
         <v>24</v>
       </c>
@@ -1884,7 +6633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="3">
         <v>27</v>
       </c>
@@ -1892,7 +6641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="3">
         <v>30</v>
       </c>
@@ -1900,13 +6649,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="34"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -1914,58 +6663,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="B16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="B23" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="34"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="37"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3">
         <v>3</v>
       </c>
@@ -1973,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -1981,7 +6730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="3">
         <v>9</v>
       </c>
@@ -1989,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -1997,7 +6746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -2005,7 +6754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="3">
         <v>18</v>
       </c>
@@ -2013,7 +6762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="3">
         <v>21</v>
       </c>
@@ -2021,7 +6770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>24</v>
       </c>
@@ -2029,7 +6778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -2037,7 +6786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -2045,13 +6794,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="34"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="37"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2083,7 +6832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -2134,47 +6883,959 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="3"/>
-    <col min="2" max="6" width="11.5546875" style="35"/>
+    <col min="2" max="6" width="11.5546875" style="34"/>
     <col min="7" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="2:6" s="36" customFormat="1">
+      <c r="B4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="35">
+    <row r="5" spans="2:6">
+      <c r="B5" s="34">
         <v>11</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <f>AVERAGE(B5:B7)</f>
         <v>37.333333333333336</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <f>ROUND(D5:D5,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="35">
+    <row r="6" spans="2:6">
+      <c r="B6" s="34">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+    <row r="7" spans="2:6">
+      <c r="B7" s="34">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="6" spans="2:7" s="35" customFormat="1">
+      <c r="B6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="34">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="34">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="34">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="34">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="34">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="34">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="34">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="34.33203125" style="3" customWidth="1"/>
+    <col min="4" max="10" width="11.5546875" style="3"/>
+    <col min="11" max="11" width="18.88671875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>89</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUM(D7:I7)</f>
+        <v>154</v>
+      </c>
+      <c r="K7" s="41">
+        <f>AVERAGE(D7:I7)</f>
+        <v>25.666666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>56</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J15" si="0">SUM(D8:I8)</f>
+        <v>153</v>
+      </c>
+      <c r="K8" s="41">
+        <f t="shared" ref="K8:K15" si="1">AVERAGE(D8:I8)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="K9" s="41">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="K10" s="41">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="K11" s="41">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="K12" s="41">
+        <f t="shared" si="1"/>
+        <v>17.166666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K13" s="41">
+        <f t="shared" si="1"/>
+        <v>11.833333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="41">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="D16" s="3">
+        <f>SUM(D7:D15)</f>
+        <v>139</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16:I16" si="2">SUM(E7:E15)</f>
+        <v>146</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3" customWidth="1"/>
+    <col min="4" max="10" width="11.5546875" style="3"/>
+    <col min="11" max="11" width="8.88671875" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="23.4">
+      <c r="B3" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18">
+      <c r="B4" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1"/>
+    <row r="7" spans="2:11" s="50" customFormat="1" ht="29.4" thickBot="1">
+      <c r="B7" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="52">
+        <v>35</v>
+      </c>
+      <c r="D8" s="53">
+        <v>4</v>
+      </c>
+      <c r="E8" s="54">
+        <v>4</v>
+      </c>
+      <c r="F8" s="54">
+        <v>5</v>
+      </c>
+      <c r="G8" s="54">
+        <v>4</v>
+      </c>
+      <c r="H8" s="54">
+        <v>4</v>
+      </c>
+      <c r="I8" s="54">
+        <v>9</v>
+      </c>
+      <c r="J8" s="55">
+        <v>1</v>
+      </c>
+      <c r="K8" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="58">
+        <v>54</v>
+      </c>
+      <c r="D9" s="59">
+        <v>5</v>
+      </c>
+      <c r="E9" s="60">
+        <v>7</v>
+      </c>
+      <c r="F9" s="60">
+        <v>11</v>
+      </c>
+      <c r="G9" s="60">
+        <v>7</v>
+      </c>
+      <c r="H9" s="60">
+        <v>7</v>
+      </c>
+      <c r="I9" s="60">
+        <v>7</v>
+      </c>
+      <c r="J9" s="61">
+        <v>7</v>
+      </c>
+      <c r="K9" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="58">
+        <v>46</v>
+      </c>
+      <c r="D10" s="59">
+        <v>2</v>
+      </c>
+      <c r="E10" s="60">
+        <v>8</v>
+      </c>
+      <c r="F10" s="60">
+        <v>4</v>
+      </c>
+      <c r="G10" s="60">
+        <v>8</v>
+      </c>
+      <c r="H10" s="60">
+        <v>8</v>
+      </c>
+      <c r="I10" s="60">
+        <v>6</v>
+      </c>
+      <c r="J10" s="61">
+        <v>9</v>
+      </c>
+      <c r="K10" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="58">
+        <v>41</v>
+      </c>
+      <c r="D11" s="59">
+        <v>9</v>
+      </c>
+      <c r="E11" s="60">
+        <v>5</v>
+      </c>
+      <c r="F11" s="60">
+        <v>2</v>
+      </c>
+      <c r="G11" s="60">
+        <v>8</v>
+      </c>
+      <c r="H11" s="60">
+        <v>5</v>
+      </c>
+      <c r="I11" s="60">
+        <v>4</v>
+      </c>
+      <c r="J11" s="61">
+        <v>3</v>
+      </c>
+      <c r="K11" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="58">
+        <v>88</v>
+      </c>
+      <c r="D12" s="59">
+        <v>14</v>
+      </c>
+      <c r="E12" s="60">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60">
+        <v>9</v>
+      </c>
+      <c r="G12" s="60">
+        <v>8</v>
+      </c>
+      <c r="H12" s="60">
+        <v>2</v>
+      </c>
+      <c r="I12" s="60">
+        <v>3</v>
+      </c>
+      <c r="J12" s="61">
+        <v>5</v>
+      </c>
+      <c r="K12" s="62">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="58">
+        <v>65</v>
+      </c>
+      <c r="D13" s="59">
+        <v>2</v>
+      </c>
+      <c r="E13" s="60">
+        <v>2</v>
+      </c>
+      <c r="F13" s="60">
+        <v>8</v>
+      </c>
+      <c r="G13" s="60">
+        <v>5</v>
+      </c>
+      <c r="H13" s="60">
+        <v>2</v>
+      </c>
+      <c r="I13" s="60">
+        <v>1</v>
+      </c>
+      <c r="J13" s="61">
+        <v>4</v>
+      </c>
+      <c r="K13" s="62">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="58">
+        <v>52</v>
+      </c>
+      <c r="D14" s="59">
+        <v>5</v>
+      </c>
+      <c r="E14" s="60">
+        <v>9</v>
+      </c>
+      <c r="F14" s="60">
+        <v>7</v>
+      </c>
+      <c r="G14" s="60">
+        <v>2</v>
+      </c>
+      <c r="H14" s="60">
+        <v>3</v>
+      </c>
+      <c r="I14" s="60">
+        <v>2</v>
+      </c>
+      <c r="J14" s="61">
+        <v>6</v>
+      </c>
+      <c r="K14" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="58">
+        <v>62</v>
+      </c>
+      <c r="D15" s="59">
+        <v>11</v>
+      </c>
+      <c r="E15" s="60">
+        <v>6</v>
+      </c>
+      <c r="F15" s="60">
+        <v>6</v>
+      </c>
+      <c r="G15" s="60">
+        <v>1</v>
+      </c>
+      <c r="H15" s="60">
+        <v>10</v>
+      </c>
+      <c r="I15" s="60">
+        <v>8</v>
+      </c>
+      <c r="J15" s="61">
+        <v>2</v>
+      </c>
+      <c r="K15" s="62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1">
+      <c r="B16" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="64">
+        <v>70</v>
+      </c>
+      <c r="D16" s="65">
+        <v>2</v>
+      </c>
+      <c r="E16" s="66">
+        <v>4</v>
+      </c>
+      <c r="F16" s="66">
+        <v>2</v>
+      </c>
+      <c r="G16" s="66">
+        <v>6</v>
+      </c>
+      <c r="H16" s="66">
+        <v>9</v>
+      </c>
+      <c r="I16" s="66">
+        <v>6</v>
+      </c>
+      <c r="J16" s="67">
+        <v>8</v>
+      </c>
+      <c r="K16" s="68">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
